--- a/Masters Project and Analysis/analytical_data/Model_Collected_F1_Scores.xlsx
+++ b/Masters Project and Analysis/analytical_data/Model_Collected_F1_Scores.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\WORKSPACE\KeyBERT-Estonia-setup\Masters Project and Analysis\analytical_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98684196-3A0E-477D-9A7A-A963044621DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EE3925-F761-465F-8A1C-C89FDA6F1DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="795" windowWidth="21825" windowHeight="13575" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LEMMA_LCF_m22" sheetId="10" r:id="rId1"/>
+    <sheet name="LEMMA_LCF_m2" sheetId="10" r:id="rId1"/>
     <sheet name="LEMMA_LCF_m1" sheetId="8" r:id="rId2"/>
     <sheet name="LEMMA_m2" sheetId="7" r:id="rId3"/>
     <sheet name="LEMMA_m1" sheetId="6" r:id="rId4"/>
@@ -30,7 +30,7 @@
     <definedName name="ExternalData_5" localSheetId="3" hidden="1">LEMMA_m1!$A$1:$C$100</definedName>
     <definedName name="ExternalData_6" localSheetId="2" hidden="1">LEMMA_m2!$A$1:$C$100</definedName>
     <definedName name="ExternalData_7" localSheetId="1" hidden="1">LEMMA_LCF_m1!$A$1:$C$100</definedName>
-    <definedName name="ExternalData_8" localSheetId="0" hidden="1">LEMMA_LCF_m22!$A$1:$C$100</definedName>
+    <definedName name="ExternalData_8" localSheetId="0" hidden="1">LEMMA_LCF_m2!$A$1:$C$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -91,9 +91,6 @@
     <t xml:space="preserve"> MiniLM-L12_multi </t>
   </si>
   <si>
-    <t xml:space="preserve"> MiniLM_multi </t>
-  </si>
-  <si>
     <t xml:space="preserve"> multi_e5 </t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve"> bertMulti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MPNet </t>
   </si>
 </sst>
 </file>
@@ -145,9 +145,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,7 +293,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1A67975A-65D8-49ED-9A39-F0952313D5A2}" uniqueName="1" name="Diversity Number " queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{0BFD1D8F-D01D-4A72-AF30-DEC7ECCC66F6}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{0BFD1D8F-D01D-4A72-AF30-DEC7ECCC66F6}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{F23A7BA9-BFAC-4B65-BB8E-63B8FF95DC2E}" uniqueName="3" name=" F1 score" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -309,7 +308,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{0632C042-D09F-4837-8999-2188A837E878}" uniqueName="1" name="Diversity Number " queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{AEC08383-5806-4A1C-A2E7-ED5F19AD2F68}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AEC08383-5806-4A1C-A2E7-ED5F19AD2F68}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{9D24BA68-44C8-4CA5-9FFF-5FAE8F1E9122}" uniqueName="3" name=" F1 score" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -324,7 +323,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{C7EC7AAB-6493-4AB5-9B48-1DE1D245BA62}" uniqueName="1" name="Diversity Number " queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{ECBF8FB4-EBB6-4A93-BB85-FF6A76805A9A}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{ECBF8FB4-EBB6-4A93-BB85-FF6A76805A9A}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{7DD57059-DAEC-4663-BBE3-1EB4F3919BFE}" uniqueName="3" name=" F1 score" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -339,7 +338,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4A5A068B-EF4D-4F49-8367-3F00CCE5EA4F}" uniqueName="1" name="Diversity Number " queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{626DABE1-7AC2-4399-AAA2-DE555E1D5833}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{626DABE1-7AC2-4399-AAA2-DE555E1D5833}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{239E116C-5318-4942-8BC2-62B2B5B17524}" uniqueName="3" name=" F1 score" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -354,7 +353,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F5E83042-E9A7-4B2A-8D54-4D2DF9720975}" uniqueName="1" name="Diversity Number " queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{BEF51E1A-A28C-40ED-97D0-044013637063}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BEF51E1A-A28C-40ED-97D0-044013637063}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{BCF77F1D-83F7-4F05-AC34-464429919B7C}" uniqueName="3" name=" F1 score" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -369,7 +368,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{9650609F-50D8-4B1F-AA08-C93D4C4C2E7E}" uniqueName="1" name="Diversity Number " queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{5769ED8C-180E-4168-A567-934D8D5B8883}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{5769ED8C-180E-4168-A567-934D8D5B8883}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{EDA57A26-5F80-4751-BB99-A7794DB89CCF}" uniqueName="3" name=" F1 score" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -384,7 +383,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{05074827-4626-476D-941F-5AF78B10F9EC}" uniqueName="1" name="Diversity Number " queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{9FCB4E69-FFC5-4A5F-B09D-BA10859B236C}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9FCB4E69-FFC5-4A5F-B09D-BA10859B236C}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{EBC5B0D0-F264-44C7-AE71-5182437EA119}" uniqueName="3" name=" F1 score" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -399,7 +398,7 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7D16E342-43C6-48C6-A2DF-909EE258DFE6}" uniqueName="1" name="Diversity Number " queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{0B05403E-F54D-488F-A26F-EEC45D4DE2B0}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0B05403E-F54D-488F-A26F-EEC45D4DE2B0}" uniqueName="2" name=" Model name " queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{3B4F09F3-24F4-4689-9311-572C11A43001}" uniqueName="3" name=" F1 score" queryTableFieldId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -671,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4749CB8A-27C9-42D5-A996-5BDF7B9D4B7B}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,7 +696,7 @@
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -708,7 +707,7 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -719,7 +718,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -730,7 +729,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -741,7 +740,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -752,7 +751,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
@@ -763,8 +762,8 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0.1086</v>
@@ -774,8 +773,8 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>5</v>
       </c>
       <c r="C9">
         <v>0.1086</v>
@@ -785,7 +784,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -796,7 +795,7 @@
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
@@ -807,7 +806,7 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
@@ -818,7 +817,7 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
@@ -829,8 +828,8 @@
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
+      <c r="B14" t="s">
+        <v>5</v>
       </c>
       <c r="C14">
         <v>0.10815</v>
@@ -840,8 +839,8 @@
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+      <c r="B15" t="s">
+        <v>5</v>
       </c>
       <c r="C15">
         <v>0.10813</v>
@@ -851,8 +850,8 @@
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
+      <c r="B16" t="s">
+        <v>5</v>
       </c>
       <c r="C16">
         <v>0.10768999999999999</v>
@@ -862,8 +861,8 @@
       <c r="A17">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
+      <c r="B17" t="s">
+        <v>5</v>
       </c>
       <c r="C17">
         <v>0.10366</v>
@@ -873,7 +872,7 @@
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
@@ -884,8 +883,8 @@
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
+      <c r="B19" t="s">
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0.10033</v>
@@ -895,7 +894,7 @@
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
@@ -906,7 +905,7 @@
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -917,7 +916,7 @@
       <c r="A22">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -928,7 +927,7 @@
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
@@ -939,8 +938,8 @@
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
+      <c r="B24" t="s">
+        <v>11</v>
       </c>
       <c r="C24">
         <v>9.2829999999999996E-2</v>
@@ -950,8 +949,8 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
+      <c r="B25" t="s">
+        <v>11</v>
       </c>
       <c r="C25">
         <v>9.2829999999999996E-2</v>
@@ -961,8 +960,8 @@
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
+      <c r="B26" t="s">
+        <v>11</v>
       </c>
       <c r="C26">
         <v>9.2829999999999996E-2</v>
@@ -972,8 +971,8 @@
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
+      <c r="B27" t="s">
+        <v>11</v>
       </c>
       <c r="C27">
         <v>9.2829999999999996E-2</v>
@@ -983,7 +982,7 @@
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
@@ -994,8 +993,8 @@
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>6</v>
+      <c r="B29" t="s">
+        <v>5</v>
       </c>
       <c r="C29">
         <v>9.1889999999999999E-2</v>
@@ -1005,8 +1004,8 @@
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
+      <c r="B30" t="s">
+        <v>11</v>
       </c>
       <c r="C30">
         <v>9.1670000000000001E-2</v>
@@ -1016,8 +1015,8 @@
       <c r="A31">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>6</v>
+      <c r="B31" t="s">
+        <v>5</v>
       </c>
       <c r="C31">
         <v>9.0130000000000002E-2</v>
@@ -1027,7 +1026,7 @@
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
@@ -1038,8 +1037,8 @@
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
+      <c r="B33" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
         <v>8.6650000000000005E-2</v>
@@ -1049,8 +1048,8 @@
       <c r="A34">
         <v>8</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
+      <c r="B34" t="s">
+        <v>11</v>
       </c>
       <c r="C34">
         <v>8.6370000000000002E-2</v>
@@ -1060,8 +1059,8 @@
       <c r="A35">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
+      <c r="B35" t="s">
+        <v>5</v>
       </c>
       <c r="C35">
         <v>8.5620000000000002E-2</v>
@@ -1071,8 +1070,8 @@
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
+      <c r="B36" t="s">
+        <v>11</v>
       </c>
       <c r="C36">
         <v>8.5129999999999997E-2</v>
@@ -1082,8 +1081,8 @@
       <c r="A37">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
+      <c r="B37" t="s">
+        <v>5</v>
       </c>
       <c r="C37">
         <v>8.4570000000000006E-2</v>
@@ -1093,7 +1092,7 @@
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
@@ -1104,8 +1103,8 @@
       <c r="A39">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
+      <c r="B39" t="s">
+        <v>11</v>
       </c>
       <c r="C39">
         <v>8.4110000000000004E-2</v>
@@ -1115,7 +1114,7 @@
       <c r="A40">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
@@ -1126,7 +1125,7 @@
       <c r="A41">
         <v>7</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
@@ -1137,7 +1136,7 @@
       <c r="A42">
         <v>8</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
@@ -1148,8 +1147,8 @@
       <c r="A43">
         <v>9</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
+      <c r="B43" t="s">
+        <v>11</v>
       </c>
       <c r="C43">
         <v>8.158E-2</v>
@@ -1159,8 +1158,8 @@
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
+      <c r="B44" t="s">
+        <v>11</v>
       </c>
       <c r="C44">
         <v>7.9719999999999999E-2</v>
@@ -1170,7 +1169,7 @@
       <c r="A45">
         <v>10</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
@@ -1181,8 +1180,8 @@
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46">
         <v>5.6000000000000001E-2</v>
@@ -1192,8 +1191,8 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47">
         <v>5.6000000000000001E-2</v>
@@ -1203,8 +1202,8 @@
       <c r="A48">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>8</v>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48">
         <v>5.6000000000000001E-2</v>
@@ -1214,8 +1213,8 @@
       <c r="A49">
         <v>3</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5.6000000000000001E-2</v>
@@ -1225,8 +1224,8 @@
       <c r="A50">
         <v>4</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>8</v>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
       <c r="C50">
         <v>5.6000000000000001E-2</v>
@@ -1236,8 +1235,8 @@
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51">
         <v>5.4089999999999999E-2</v>
@@ -1247,8 +1246,8 @@
       <c r="A52">
         <v>7</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52">
         <v>5.3429999999999998E-2</v>
@@ -1258,8 +1257,8 @@
       <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>8</v>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53">
         <v>5.3129999999999997E-2</v>
@@ -1269,8 +1268,8 @@
       <c r="A54">
         <v>5</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54">
         <v>5.203E-2</v>
@@ -1280,8 +1279,8 @@
       <c r="A55">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
         <v>5.1549999999999999E-2</v>
@@ -1291,8 +1290,8 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
+      <c r="B56" t="s">
+        <v>6</v>
       </c>
       <c r="C56">
         <v>5.1549999999999999E-2</v>
@@ -1302,8 +1301,8 @@
       <c r="A57">
         <v>2</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
         <v>5.1549999999999999E-2</v>
@@ -1313,8 +1312,8 @@
       <c r="A58">
         <v>3</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
         <v>5.1549999999999999E-2</v>
@@ -1324,8 +1323,8 @@
       <c r="A59">
         <v>4</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59">
         <v>5.1549999999999999E-2</v>
@@ -1335,8 +1334,8 @@
       <c r="A60">
         <v>8</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
         <v>5.1490000000000001E-2</v>
@@ -1346,8 +1345,8 @@
       <c r="A61">
         <v>8</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61">
         <v>5.0799999999999998E-2</v>
@@ -1357,8 +1356,8 @@
       <c r="A62">
         <v>9</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62">
         <v>4.9090000000000002E-2</v>
@@ -1368,8 +1367,8 @@
       <c r="A63">
         <v>9</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
+      <c r="B63" t="s">
+        <v>7</v>
       </c>
       <c r="C63">
         <v>4.8779999999999997E-2</v>
@@ -1379,8 +1378,8 @@
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
         <v>4.8120000000000003E-2</v>
@@ -1390,8 +1389,8 @@
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
         <v>4.8099999999999997E-2</v>
@@ -1401,8 +1400,8 @@
       <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>8</v>
+      <c r="B66" t="s">
+        <v>7</v>
       </c>
       <c r="C66">
         <v>4.684E-2</v>
@@ -1412,8 +1411,8 @@
       <c r="A67">
         <v>10</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
+      <c r="B67" t="s">
+        <v>6</v>
       </c>
       <c r="C67">
         <v>4.4690000000000001E-2</v>
@@ -1423,8 +1422,8 @@
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>11</v>
+      <c r="B68" t="s">
+        <v>10</v>
       </c>
       <c r="C68">
         <v>3.2730000000000002E-2</v>
@@ -1434,8 +1433,8 @@
       <c r="A69">
         <v>8</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69">
         <v>3.2550000000000003E-2</v>
@@ -1445,8 +1444,8 @@
       <c r="A70">
         <v>7</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70">
         <v>3.2480000000000002E-2</v>
@@ -1456,8 +1455,8 @@
       <c r="A71">
         <v>10</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71">
         <v>3.2390000000000002E-2</v>
@@ -1467,8 +1466,8 @@
       <c r="A72">
         <v>2</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72">
         <v>3.184E-2</v>
@@ -1478,8 +1477,8 @@
       <c r="A73">
         <v>9</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73">
         <v>3.1579999999999997E-2</v>
@@ -1489,8 +1488,8 @@
       <c r="A74">
         <v>6</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74">
         <v>3.1570000000000001E-2</v>
@@ -1500,8 +1499,8 @@
       <c r="A75">
         <v>5</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75">
         <v>3.1519999999999999E-2</v>
@@ -1511,8 +1510,8 @@
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76">
         <v>3.1510000000000003E-2</v>
@@ -1522,8 +1521,8 @@
       <c r="A77">
         <v>4</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>9</v>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77">
         <v>3.1099999999999999E-2</v>
@@ -1533,8 +1532,8 @@
       <c r="A78">
         <v>0</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78">
         <v>3.066E-2</v>
@@ -1544,8 +1543,8 @@
       <c r="A79">
         <v>3</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>9</v>
+      <c r="B79" t="s">
+        <v>8</v>
       </c>
       <c r="C79">
         <v>3.0259999999999999E-2</v>
@@ -1555,8 +1554,8 @@
       <c r="A80">
         <v>9</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>11</v>
+      <c r="B80" t="s">
+        <v>10</v>
       </c>
       <c r="C80">
         <v>2.9530000000000001E-2</v>
@@ -1566,8 +1565,8 @@
       <c r="A81">
         <v>8</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>11</v>
+      <c r="B81" t="s">
+        <v>10</v>
       </c>
       <c r="C81">
         <v>2.8660000000000001E-2</v>
@@ -1577,8 +1576,8 @@
       <c r="A82">
         <v>0</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
+      <c r="B82" t="s">
+        <v>10</v>
       </c>
       <c r="C82">
         <v>2.7050000000000001E-2</v>
@@ -1588,8 +1587,8 @@
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>11</v>
+      <c r="B83" t="s">
+        <v>10</v>
       </c>
       <c r="C83">
         <v>2.7050000000000001E-2</v>
@@ -1599,8 +1598,8 @@
       <c r="A84">
         <v>2</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>11</v>
+      <c r="B84" t="s">
+        <v>10</v>
       </c>
       <c r="C84">
         <v>2.7050000000000001E-2</v>
@@ -1610,8 +1609,8 @@
       <c r="A85">
         <v>3</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>11</v>
+      <c r="B85" t="s">
+        <v>10</v>
       </c>
       <c r="C85">
         <v>2.7050000000000001E-2</v>
@@ -1621,8 +1620,8 @@
       <c r="A86">
         <v>5</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>11</v>
+      <c r="B86" t="s">
+        <v>10</v>
       </c>
       <c r="C86">
         <v>2.7050000000000001E-2</v>
@@ -1632,8 +1631,8 @@
       <c r="A87">
         <v>4</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>11</v>
+      <c r="B87" t="s">
+        <v>10</v>
       </c>
       <c r="C87">
         <v>2.6589999999999999E-2</v>
@@ -1643,8 +1642,8 @@
       <c r="A88">
         <v>6</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>11</v>
+      <c r="B88" t="s">
+        <v>10</v>
       </c>
       <c r="C88">
         <v>2.579E-2</v>
@@ -1654,8 +1653,8 @@
       <c r="A89">
         <v>7</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>11</v>
+      <c r="B89" t="s">
+        <v>10</v>
       </c>
       <c r="C89">
         <v>2.5360000000000001E-2</v>
@@ -1665,8 +1664,8 @@
       <c r="A90">
         <v>10</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>10</v>
+      <c r="B90" t="s">
+        <v>9</v>
       </c>
       <c r="C90">
         <v>2.3429999999999999E-2</v>
@@ -1676,8 +1675,8 @@
       <c r="A91">
         <v>6</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>10</v>
+      <c r="B91" t="s">
+        <v>9</v>
       </c>
       <c r="C91">
         <v>2.206E-2</v>
@@ -1687,8 +1686,8 @@
       <c r="A92">
         <v>9</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
+      <c r="B92" t="s">
+        <v>9</v>
       </c>
       <c r="C92">
         <v>2.1579999999999998E-2</v>
@@ -1698,8 +1697,8 @@
       <c r="A93">
         <v>1</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>10</v>
+      <c r="B93" t="s">
+        <v>9</v>
       </c>
       <c r="C93">
         <v>2.155E-2</v>
@@ -1709,8 +1708,8 @@
       <c r="A94">
         <v>2</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>10</v>
+      <c r="B94" t="s">
+        <v>9</v>
       </c>
       <c r="C94">
         <v>2.155E-2</v>
@@ -1720,8 +1719,8 @@
       <c r="A95">
         <v>3</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>10</v>
+      <c r="B95" t="s">
+        <v>9</v>
       </c>
       <c r="C95">
         <v>2.155E-2</v>
@@ -1731,8 +1730,8 @@
       <c r="A96">
         <v>4</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>10</v>
+      <c r="B96" t="s">
+        <v>9</v>
       </c>
       <c r="C96">
         <v>2.155E-2</v>
@@ -1742,8 +1741,8 @@
       <c r="A97">
         <v>5</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>10</v>
+      <c r="B97" t="s">
+        <v>9</v>
       </c>
       <c r="C97">
         <v>2.155E-2</v>
@@ -1753,8 +1752,8 @@
       <c r="A98">
         <v>7</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>10</v>
+      <c r="B98" t="s">
+        <v>9</v>
       </c>
       <c r="C98">
         <v>2.155E-2</v>
@@ -1764,8 +1763,8 @@
       <c r="A99">
         <v>0</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>10</v>
+      <c r="B99" t="s">
+        <v>9</v>
       </c>
       <c r="C99">
         <v>2.102E-2</v>
@@ -1775,8 +1774,8 @@
       <c r="A100">
         <v>8</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>10</v>
+      <c r="B100" t="s">
+        <v>9</v>
       </c>
       <c r="C100">
         <v>2.102E-2</v>
@@ -1820,7 +1819,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -1831,7 +1830,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -1842,7 +1841,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1853,7 +1852,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -1864,7 +1863,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -1875,7 +1874,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
@@ -1886,7 +1885,7 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
@@ -1897,7 +1896,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
@@ -1908,7 +1907,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -1919,7 +1918,7 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
@@ -1930,7 +1929,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
@@ -1941,7 +1940,7 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
@@ -1952,7 +1951,7 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
@@ -1963,7 +1962,7 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
@@ -1974,8 +1973,8 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
+      <c r="B16" t="s">
+        <v>5</v>
       </c>
       <c r="C16">
         <v>9.3549999999999994E-2</v>
@@ -1985,8 +1984,8 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
+      <c r="B17" t="s">
+        <v>5</v>
       </c>
       <c r="C17">
         <v>9.3549999999999994E-2</v>
@@ -1996,8 +1995,8 @@
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
+      <c r="B18" t="s">
+        <v>5</v>
       </c>
       <c r="C18">
         <v>9.3490000000000004E-2</v>
@@ -2007,8 +2006,8 @@
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
+      <c r="B19" t="s">
+        <v>5</v>
       </c>
       <c r="C19">
         <v>9.3149999999999997E-2</v>
@@ -2018,8 +2017,8 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
+      <c r="B20" t="s">
+        <v>5</v>
       </c>
       <c r="C20">
         <v>9.3039999999999998E-2</v>
@@ -2029,7 +2028,7 @@
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
@@ -2040,7 +2039,7 @@
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -2051,7 +2050,7 @@
       <c r="A23">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
@@ -2062,8 +2061,8 @@
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
+      <c r="B24" t="s">
+        <v>11</v>
       </c>
       <c r="C24">
         <v>9.1240000000000002E-2</v>
@@ -2073,8 +2072,8 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>5</v>
+      <c r="B25" t="s">
+        <v>11</v>
       </c>
       <c r="C25">
         <v>9.1240000000000002E-2</v>
@@ -2084,8 +2083,8 @@
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
+      <c r="B26" t="s">
+        <v>11</v>
       </c>
       <c r="C26">
         <v>9.1240000000000002E-2</v>
@@ -2095,8 +2094,8 @@
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
+      <c r="B27" t="s">
+        <v>11</v>
       </c>
       <c r="C27">
         <v>9.1240000000000002E-2</v>
@@ -2106,8 +2105,8 @@
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
+      <c r="B28" t="s">
+        <v>5</v>
       </c>
       <c r="C28">
         <v>8.9330000000000007E-2</v>
@@ -2117,7 +2116,7 @@
       <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29">
@@ -2128,8 +2127,8 @@
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
+      <c r="B30" t="s">
+        <v>11</v>
       </c>
       <c r="C30">
         <v>8.8770000000000002E-2</v>
@@ -2139,7 +2138,7 @@
       <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
@@ -2150,8 +2149,8 @@
       <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
+      <c r="B32" t="s">
+        <v>5</v>
       </c>
       <c r="C32">
         <v>8.8010000000000005E-2</v>
@@ -2161,8 +2160,8 @@
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
+      <c r="B33" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
         <v>8.7970000000000007E-2</v>
@@ -2172,8 +2171,8 @@
       <c r="A34">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
+      <c r="B34" t="s">
+        <v>11</v>
       </c>
       <c r="C34">
         <v>8.6709999999999995E-2</v>
@@ -2183,7 +2182,7 @@
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
@@ -2194,7 +2193,7 @@
       <c r="A36">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
@@ -2205,7 +2204,7 @@
       <c r="A37">
         <v>7</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -2216,8 +2215,8 @@
       <c r="A38">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
+      <c r="B38" t="s">
+        <v>5</v>
       </c>
       <c r="C38">
         <v>8.3599999999999994E-2</v>
@@ -2227,8 +2226,8 @@
       <c r="A39">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
+      <c r="B39" t="s">
+        <v>5</v>
       </c>
       <c r="C39">
         <v>8.3519999999999997E-2</v>
@@ -2238,8 +2237,8 @@
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
+      <c r="B40" t="s">
+        <v>11</v>
       </c>
       <c r="C40">
         <v>8.2960000000000006E-2</v>
@@ -2249,8 +2248,8 @@
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
+      <c r="B41" t="s">
+        <v>5</v>
       </c>
       <c r="C41">
         <v>8.201E-2</v>
@@ -2260,8 +2259,8 @@
       <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>5</v>
+      <c r="B42" t="s">
+        <v>11</v>
       </c>
       <c r="C42">
         <v>8.1939999999999999E-2</v>
@@ -2271,8 +2270,8 @@
       <c r="A43">
         <v>9</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
+      <c r="B43" t="s">
+        <v>11</v>
       </c>
       <c r="C43">
         <v>8.1739999999999993E-2</v>
@@ -2282,8 +2281,8 @@
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
+      <c r="B44" t="s">
+        <v>5</v>
       </c>
       <c r="C44">
         <v>7.9519999999999993E-2</v>
@@ -2293,8 +2292,8 @@
       <c r="A45">
         <v>10</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>5</v>
+      <c r="B45" t="s">
+        <v>11</v>
       </c>
       <c r="C45">
         <v>7.8839999999999993E-2</v>
@@ -2304,8 +2303,8 @@
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46">
         <v>5.6730000000000003E-2</v>
@@ -2315,8 +2314,8 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47">
         <v>5.6730000000000003E-2</v>
@@ -2326,8 +2325,8 @@
       <c r="A48">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>8</v>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48">
         <v>5.6730000000000003E-2</v>
@@ -2337,8 +2336,8 @@
       <c r="A49">
         <v>3</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5.6730000000000003E-2</v>
@@ -2348,8 +2347,8 @@
       <c r="A50">
         <v>4</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>8</v>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
       <c r="C50">
         <v>5.6329999999999998E-2</v>
@@ -2359,8 +2358,8 @@
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51">
         <v>5.4769999999999999E-2</v>
@@ -2370,8 +2369,8 @@
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52">
         <v>5.2909999999999999E-2</v>
@@ -2381,8 +2380,8 @@
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>8</v>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53">
         <v>5.1209999999999999E-2</v>
@@ -2392,8 +2391,8 @@
       <c r="A54">
         <v>9</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54">
         <v>4.9500000000000002E-2</v>
@@ -2403,8 +2402,8 @@
       <c r="A55">
         <v>8</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55">
         <v>4.8770000000000001E-2</v>
@@ -2414,8 +2413,8 @@
       <c r="A56">
         <v>10</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56">
         <v>4.6100000000000002E-2</v>
@@ -2425,8 +2424,8 @@
       <c r="A57">
         <v>0</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
         <v>4.2700000000000002E-2</v>
@@ -2436,8 +2435,8 @@
       <c r="A58">
         <v>1</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
         <v>4.2700000000000002E-2</v>
@@ -2447,8 +2446,8 @@
       <c r="A59">
         <v>2</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59">
         <v>4.2700000000000002E-2</v>
@@ -2458,8 +2457,8 @@
       <c r="A60">
         <v>3</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
         <v>4.2700000000000002E-2</v>
@@ -2469,8 +2468,8 @@
       <c r="A61">
         <v>4</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
       <c r="C61">
         <v>4.2700000000000002E-2</v>
@@ -2480,8 +2479,8 @@
       <c r="A62">
         <v>5</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62">
         <v>4.2680000000000003E-2</v>
@@ -2491,8 +2490,8 @@
       <c r="A63">
         <v>8</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63">
         <v>4.2639999999999997E-2</v>
@@ -2502,8 +2501,8 @@
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
         <v>4.2279999999999998E-2</v>
@@ -2513,8 +2512,8 @@
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
         <v>4.0390000000000002E-2</v>
@@ -2524,8 +2523,8 @@
       <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
       <c r="C66">
         <v>3.9579999999999997E-2</v>
@@ -2535,8 +2534,8 @@
       <c r="A67">
         <v>6</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
+      <c r="B67" t="s">
+        <v>8</v>
       </c>
       <c r="C67">
         <v>3.7769999999999998E-2</v>
@@ -2546,8 +2545,8 @@
       <c r="A68">
         <v>9</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
+      <c r="B68" t="s">
+        <v>6</v>
       </c>
       <c r="C68">
         <v>3.7769999999999998E-2</v>
@@ -2557,8 +2556,8 @@
       <c r="A69">
         <v>3</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69">
         <v>3.7670000000000002E-2</v>
@@ -2568,8 +2567,8 @@
       <c r="A70">
         <v>2</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70">
         <v>3.7620000000000001E-2</v>
@@ -2579,8 +2578,8 @@
       <c r="A71">
         <v>4</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71">
         <v>3.7539999999999997E-2</v>
@@ -2590,8 +2589,8 @@
       <c r="A72">
         <v>7</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72">
         <v>3.7289999999999997E-2</v>
@@ -2601,8 +2600,8 @@
       <c r="A73">
         <v>8</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73">
         <v>3.721E-2</v>
@@ -2612,8 +2611,8 @@
       <c r="A74">
         <v>5</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74">
         <v>3.703E-2</v>
@@ -2623,8 +2622,8 @@
       <c r="A75">
         <v>9</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75">
         <v>3.6569999999999998E-2</v>
@@ -2634,8 +2633,8 @@
       <c r="A76">
         <v>1</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76">
         <v>3.5999999999999997E-2</v>
@@ -2645,8 +2644,8 @@
       <c r="A77">
         <v>0</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>9</v>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77">
         <v>3.4759999999999999E-2</v>
@@ -2656,8 +2655,8 @@
       <c r="A78">
         <v>10</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78">
         <v>3.4680000000000002E-2</v>
@@ -2667,8 +2666,8 @@
       <c r="A79">
         <v>10</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>11</v>
+      <c r="B79" t="s">
+        <v>10</v>
       </c>
       <c r="C79">
         <v>2.9579999999999999E-2</v>
@@ -2678,8 +2677,8 @@
       <c r="A80">
         <v>8</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>11</v>
+      <c r="B80" t="s">
+        <v>10</v>
       </c>
       <c r="C80">
         <v>2.818E-2</v>
@@ -2689,8 +2688,8 @@
       <c r="A81">
         <v>9</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>11</v>
+      <c r="B81" t="s">
+        <v>10</v>
       </c>
       <c r="C81">
         <v>2.6360000000000001E-2</v>
@@ -2700,8 +2699,8 @@
       <c r="A82">
         <v>0</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
+      <c r="B82" t="s">
+        <v>10</v>
       </c>
       <c r="C82">
         <v>2.334E-2</v>
@@ -2711,8 +2710,8 @@
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>11</v>
+      <c r="B83" t="s">
+        <v>10</v>
       </c>
       <c r="C83">
         <v>2.334E-2</v>
@@ -2722,8 +2721,8 @@
       <c r="A84">
         <v>2</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>11</v>
+      <c r="B84" t="s">
+        <v>10</v>
       </c>
       <c r="C84">
         <v>2.334E-2</v>
@@ -2733,8 +2732,8 @@
       <c r="A85">
         <v>3</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>11</v>
+      <c r="B85" t="s">
+        <v>10</v>
       </c>
       <c r="C85">
         <v>2.334E-2</v>
@@ -2744,8 +2743,8 @@
       <c r="A86">
         <v>4</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>11</v>
+      <c r="B86" t="s">
+        <v>10</v>
       </c>
       <c r="C86">
         <v>2.334E-2</v>
@@ -2755,8 +2754,8 @@
       <c r="A87">
         <v>5</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>11</v>
+      <c r="B87" t="s">
+        <v>10</v>
       </c>
       <c r="C87">
         <v>2.334E-2</v>
@@ -2766,8 +2765,8 @@
       <c r="A88">
         <v>6</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>11</v>
+      <c r="B88" t="s">
+        <v>10</v>
       </c>
       <c r="C88">
         <v>2.2800000000000001E-2</v>
@@ -2777,8 +2776,8 @@
       <c r="A89">
         <v>7</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>11</v>
+      <c r="B89" t="s">
+        <v>10</v>
       </c>
       <c r="C89">
         <v>2.1489999999999999E-2</v>
@@ -2788,8 +2787,8 @@
       <c r="A90">
         <v>9</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>10</v>
+      <c r="B90" t="s">
+        <v>9</v>
       </c>
       <c r="C90">
         <v>1.8880000000000001E-2</v>
@@ -2799,8 +2798,8 @@
       <c r="A91">
         <v>10</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>10</v>
+      <c r="B91" t="s">
+        <v>9</v>
       </c>
       <c r="C91">
         <v>1.881E-2</v>
@@ -2810,8 +2809,8 @@
       <c r="A92">
         <v>4</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
+      <c r="B92" t="s">
+        <v>9</v>
       </c>
       <c r="C92">
         <v>1.8769999999999998E-2</v>
@@ -2821,8 +2820,8 @@
       <c r="A93">
         <v>5</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>10</v>
+      <c r="B93" t="s">
+        <v>9</v>
       </c>
       <c r="C93">
         <v>1.8769999999999998E-2</v>
@@ -2832,8 +2831,8 @@
       <c r="A94">
         <v>6</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>10</v>
+      <c r="B94" t="s">
+        <v>9</v>
       </c>
       <c r="C94">
         <v>1.8769999999999998E-2</v>
@@ -2843,8 +2842,8 @@
       <c r="A95">
         <v>7</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>10</v>
+      <c r="B95" t="s">
+        <v>9</v>
       </c>
       <c r="C95">
         <v>1.8769999999999998E-2</v>
@@ -2854,8 +2853,8 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>10</v>
+      <c r="B96" t="s">
+        <v>9</v>
       </c>
       <c r="C96">
         <v>1.8419999999999999E-2</v>
@@ -2865,8 +2864,8 @@
       <c r="A97">
         <v>2</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>10</v>
+      <c r="B97" t="s">
+        <v>9</v>
       </c>
       <c r="C97">
         <v>1.8419999999999999E-2</v>
@@ -2876,8 +2875,8 @@
       <c r="A98">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>10</v>
+      <c r="B98" t="s">
+        <v>9</v>
       </c>
       <c r="C98">
         <v>1.8419999999999999E-2</v>
@@ -2887,8 +2886,8 @@
       <c r="A99">
         <v>8</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>10</v>
+      <c r="B99" t="s">
+        <v>9</v>
       </c>
       <c r="C99">
         <v>1.8239999999999999E-2</v>
@@ -2898,8 +2897,8 @@
       <c r="A100">
         <v>0</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>10</v>
+      <c r="B100" t="s">
+        <v>9</v>
       </c>
       <c r="C100">
         <v>1.789E-2</v>
@@ -2943,7 +2942,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -2954,7 +2953,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -2965,7 +2964,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -2976,7 +2975,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -2987,7 +2986,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -2998,7 +2997,7 @@
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -3009,7 +3008,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
@@ -3020,7 +3019,7 @@
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
@@ -3031,7 +3030,7 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -3042,7 +3041,7 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
@@ -3053,7 +3052,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
@@ -3064,7 +3063,7 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
@@ -3075,7 +3074,7 @@
       <c r="A14">
         <v>7</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
@@ -3086,8 +3085,8 @@
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
+      <c r="B15" t="s">
+        <v>11</v>
       </c>
       <c r="C15">
         <v>9.3060000000000004E-2</v>
@@ -3097,8 +3096,8 @@
       <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
       <c r="C16">
         <v>9.3060000000000004E-2</v>
@@ -3108,8 +3107,8 @@
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
+      <c r="B17" t="s">
+        <v>11</v>
       </c>
       <c r="C17">
         <v>9.3060000000000004E-2</v>
@@ -3119,8 +3118,8 @@
       <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+      <c r="B18" t="s">
+        <v>11</v>
       </c>
       <c r="C18">
         <v>9.3060000000000004E-2</v>
@@ -3130,8 +3129,8 @@
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
       <c r="C19">
         <v>9.1969999999999996E-2</v>
@@ -3141,8 +3140,8 @@
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
+      <c r="B20" t="s">
+        <v>5</v>
       </c>
       <c r="C20">
         <v>9.1939999999999994E-2</v>
@@ -3152,8 +3151,8 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
       <c r="C21">
         <v>9.1939999999999994E-2</v>
@@ -3163,8 +3162,8 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>6</v>
+      <c r="B22" t="s">
+        <v>5</v>
       </c>
       <c r="C22">
         <v>9.1939999999999994E-2</v>
@@ -3174,8 +3173,8 @@
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
+      <c r="B23" t="s">
+        <v>5</v>
       </c>
       <c r="C23">
         <v>9.1469999999999996E-2</v>
@@ -3185,8 +3184,8 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
+      <c r="B24" t="s">
+        <v>5</v>
       </c>
       <c r="C24">
         <v>9.103E-2</v>
@@ -3196,7 +3195,7 @@
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25">
@@ -3207,8 +3206,8 @@
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
+      <c r="B26" t="s">
+        <v>5</v>
       </c>
       <c r="C26">
         <v>8.6419999999999997E-2</v>
@@ -3218,7 +3217,7 @@
       <c r="A27">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
@@ -3229,8 +3228,8 @@
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
+      <c r="B28" t="s">
+        <v>11</v>
       </c>
       <c r="C28">
         <v>8.6080000000000004E-2</v>
@@ -3240,8 +3239,8 @@
       <c r="A29">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
+      <c r="B29" t="s">
+        <v>11</v>
       </c>
       <c r="C29">
         <v>8.5370000000000001E-2</v>
@@ -3251,7 +3250,7 @@
       <c r="A30">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
@@ -3262,7 +3261,7 @@
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
@@ -3273,7 +3272,7 @@
       <c r="A32">
         <v>6</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
@@ -3284,8 +3283,8 @@
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
+      <c r="B33" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
         <v>8.2710000000000006E-2</v>
@@ -3295,8 +3294,8 @@
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
+      <c r="B34" t="s">
+        <v>11</v>
       </c>
       <c r="C34">
         <v>8.1019999999999995E-2</v>
@@ -3306,7 +3305,7 @@
       <c r="A35">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>4</v>
       </c>
       <c r="C35">
@@ -3317,8 +3316,8 @@
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
+      <c r="B36" t="s">
+        <v>5</v>
       </c>
       <c r="C36">
         <v>7.9640000000000002E-2</v>
@@ -3328,7 +3327,7 @@
       <c r="A37">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
@@ -3339,7 +3338,7 @@
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
@@ -3350,7 +3349,7 @@
       <c r="A39">
         <v>10</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
@@ -3361,8 +3360,8 @@
       <c r="A40">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
+      <c r="B40" t="s">
+        <v>11</v>
       </c>
       <c r="C40">
         <v>7.1980000000000002E-2</v>
@@ -3372,8 +3371,8 @@
       <c r="A41">
         <v>7</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
+      <c r="B41" t="s">
+        <v>5</v>
       </c>
       <c r="C41">
         <v>7.0999999999999994E-2</v>
@@ -3383,8 +3382,8 @@
       <c r="A42">
         <v>8</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
+      <c r="B42" t="s">
+        <v>5</v>
       </c>
       <c r="C42">
         <v>7.084E-2</v>
@@ -3394,8 +3393,8 @@
       <c r="A43">
         <v>10</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>5</v>
+      <c r="B43" t="s">
+        <v>11</v>
       </c>
       <c r="C43">
         <v>7.0400000000000004E-2</v>
@@ -3405,8 +3404,8 @@
       <c r="A44">
         <v>10</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
+      <c r="B44" t="s">
+        <v>5</v>
       </c>
       <c r="C44">
         <v>6.8860000000000005E-2</v>
@@ -3416,8 +3415,8 @@
       <c r="A45">
         <v>9</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
+      <c r="B45" t="s">
+        <v>5</v>
       </c>
       <c r="C45">
         <v>6.8260000000000001E-2</v>
@@ -3427,8 +3426,8 @@
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46">
         <v>5.4449999999999998E-2</v>
@@ -3438,8 +3437,8 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47">
         <v>5.4449999999999998E-2</v>
@@ -3449,8 +3448,8 @@
       <c r="A48">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>8</v>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48">
         <v>5.4449999999999998E-2</v>
@@ -3460,8 +3459,8 @@
       <c r="A49">
         <v>3</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5.4449999999999998E-2</v>
@@ -3471,8 +3470,8 @@
       <c r="A50">
         <v>4</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>8</v>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
       <c r="C50">
         <v>5.4449999999999998E-2</v>
@@ -3482,8 +3481,8 @@
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51">
         <v>5.3330000000000002E-2</v>
@@ -3493,8 +3492,8 @@
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>7</v>
+      <c r="B52" t="s">
+        <v>6</v>
       </c>
       <c r="C52">
         <v>5.203E-2</v>
@@ -3504,8 +3503,8 @@
       <c r="A53">
         <v>0</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53">
         <v>5.1520000000000003E-2</v>
@@ -3515,8 +3514,8 @@
       <c r="A54">
         <v>1</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>7</v>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54">
         <v>5.1520000000000003E-2</v>
@@ -3526,8 +3525,8 @@
       <c r="A55">
         <v>2</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
         <v>5.1520000000000003E-2</v>
@@ -3537,8 +3536,8 @@
       <c r="A56">
         <v>3</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>7</v>
+      <c r="B56" t="s">
+        <v>6</v>
       </c>
       <c r="C56">
         <v>5.1520000000000003E-2</v>
@@ -3548,8 +3547,8 @@
       <c r="A57">
         <v>4</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
         <v>5.1520000000000003E-2</v>
@@ -3559,8 +3558,8 @@
       <c r="A58">
         <v>8</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
         <v>5.1139999999999998E-2</v>
@@ -3570,8 +3569,8 @@
       <c r="A59">
         <v>6</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>8</v>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59">
         <v>5.0479999999999997E-2</v>
@@ -3581,8 +3580,8 @@
       <c r="A60">
         <v>9</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
         <v>4.8739999999999999E-2</v>
@@ -3592,8 +3591,8 @@
       <c r="A61">
         <v>7</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61">
         <v>4.8710000000000003E-2</v>
@@ -3603,8 +3602,8 @@
       <c r="A62">
         <v>8</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62">
         <v>4.8480000000000002E-2</v>
@@ -3614,8 +3613,8 @@
       <c r="A63">
         <v>6</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63">
         <v>4.8120000000000003E-2</v>
@@ -3625,8 +3624,8 @@
       <c r="A64">
         <v>7</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
         <v>4.8099999999999997E-2</v>
@@ -3636,8 +3635,8 @@
       <c r="A65">
         <v>10</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>8</v>
+      <c r="B65" t="s">
+        <v>7</v>
       </c>
       <c r="C65">
         <v>4.6120000000000001E-2</v>
@@ -3647,8 +3646,8 @@
       <c r="A66">
         <v>9</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>8</v>
+      <c r="B66" t="s">
+        <v>7</v>
       </c>
       <c r="C66">
         <v>4.5909999999999999E-2</v>
@@ -3658,8 +3657,8 @@
       <c r="A67">
         <v>10</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
+      <c r="B67" t="s">
+        <v>6</v>
       </c>
       <c r="C67">
         <v>4.4260000000000001E-2</v>
@@ -3669,8 +3668,8 @@
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>11</v>
+      <c r="B68" t="s">
+        <v>10</v>
       </c>
       <c r="C68">
         <v>3.4110000000000001E-2</v>
@@ -3680,8 +3679,8 @@
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69">
         <v>3.0620000000000001E-2</v>
@@ -3691,8 +3690,8 @@
       <c r="A70">
         <v>9</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70">
         <v>3.0470000000000001E-2</v>
@@ -3702,8 +3701,8 @@
       <c r="A71">
         <v>8</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>11</v>
+      <c r="B71" t="s">
+        <v>10</v>
       </c>
       <c r="C71">
         <v>3.024E-2</v>
@@ -3713,8 +3712,8 @@
       <c r="A72">
         <v>7</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>11</v>
+      <c r="B72" t="s">
+        <v>10</v>
       </c>
       <c r="C72">
         <v>2.955E-2</v>
@@ -3724,8 +3723,8 @@
       <c r="A73">
         <v>9</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>11</v>
+      <c r="B73" t="s">
+        <v>10</v>
       </c>
       <c r="C73">
         <v>2.9350000000000001E-2</v>
@@ -3735,8 +3734,8 @@
       <c r="A74">
         <v>8</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74">
         <v>2.8760000000000001E-2</v>
@@ -3746,8 +3745,8 @@
       <c r="A75">
         <v>7</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75">
         <v>2.845E-2</v>
@@ -3757,8 +3756,8 @@
       <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76">
         <v>2.7830000000000001E-2</v>
@@ -3768,8 +3767,8 @@
       <c r="A77">
         <v>6</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>9</v>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77">
         <v>2.777E-2</v>
@@ -3779,8 +3778,8 @@
       <c r="A78">
         <v>5</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78">
         <v>2.7730000000000001E-2</v>
@@ -3790,8 +3789,8 @@
       <c r="A79">
         <v>1</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>9</v>
+      <c r="B79" t="s">
+        <v>8</v>
       </c>
       <c r="C79">
         <v>2.7689999999999999E-2</v>
@@ -3801,8 +3800,8 @@
       <c r="A80">
         <v>4</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>9</v>
+      <c r="B80" t="s">
+        <v>8</v>
       </c>
       <c r="C80">
         <v>2.7380000000000002E-2</v>
@@ -3812,8 +3811,8 @@
       <c r="A81">
         <v>3</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>9</v>
+      <c r="B81" t="s">
+        <v>8</v>
       </c>
       <c r="C81">
         <v>2.6960000000000001E-2</v>
@@ -3823,8 +3822,8 @@
       <c r="A82">
         <v>6</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
+      <c r="B82" t="s">
+        <v>10</v>
       </c>
       <c r="C82">
         <v>2.6939999999999999E-2</v>
@@ -3834,8 +3833,8 @@
       <c r="A83">
         <v>0</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>9</v>
+      <c r="B83" t="s">
+        <v>8</v>
       </c>
       <c r="C83">
         <v>2.6519999999999998E-2</v>
@@ -3845,8 +3844,8 @@
       <c r="A84">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>11</v>
+      <c r="B84" t="s">
+        <v>10</v>
       </c>
       <c r="C84">
         <v>2.632E-2</v>
@@ -3856,8 +3855,8 @@
       <c r="A85">
         <v>1</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>11</v>
+      <c r="B85" t="s">
+        <v>10</v>
       </c>
       <c r="C85">
         <v>2.632E-2</v>
@@ -3867,8 +3866,8 @@
       <c r="A86">
         <v>2</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>11</v>
+      <c r="B86" t="s">
+        <v>10</v>
       </c>
       <c r="C86">
         <v>2.632E-2</v>
@@ -3878,8 +3877,8 @@
       <c r="A87">
         <v>3</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>11</v>
+      <c r="B87" t="s">
+        <v>10</v>
       </c>
       <c r="C87">
         <v>2.632E-2</v>
@@ -3889,8 +3888,8 @@
       <c r="A88">
         <v>4</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>11</v>
+      <c r="B88" t="s">
+        <v>10</v>
       </c>
       <c r="C88">
         <v>2.632E-2</v>
@@ -3900,8 +3899,8 @@
       <c r="A89">
         <v>5</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>11</v>
+      <c r="B89" t="s">
+        <v>10</v>
       </c>
       <c r="C89">
         <v>2.632E-2</v>
@@ -3911,8 +3910,8 @@
       <c r="A90">
         <v>6</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>10</v>
+      <c r="B90" t="s">
+        <v>9</v>
       </c>
       <c r="C90">
         <v>2.5329999999999998E-2</v>
@@ -3922,8 +3921,8 @@
       <c r="A91">
         <v>10</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>10</v>
+      <c r="B91" t="s">
+        <v>9</v>
       </c>
       <c r="C91">
         <v>2.494E-2</v>
@@ -3933,8 +3932,8 @@
       <c r="A92">
         <v>1</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
+      <c r="B92" t="s">
+        <v>9</v>
       </c>
       <c r="C92">
         <v>2.4830000000000001E-2</v>
@@ -3944,8 +3943,8 @@
       <c r="A93">
         <v>2</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>10</v>
+      <c r="B93" t="s">
+        <v>9</v>
       </c>
       <c r="C93">
         <v>2.4830000000000001E-2</v>
@@ -3955,8 +3954,8 @@
       <c r="A94">
         <v>3</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>10</v>
+      <c r="B94" t="s">
+        <v>9</v>
       </c>
       <c r="C94">
         <v>2.4830000000000001E-2</v>
@@ -3966,8 +3965,8 @@
       <c r="A95">
         <v>4</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>10</v>
+      <c r="B95" t="s">
+        <v>9</v>
       </c>
       <c r="C95">
         <v>2.4830000000000001E-2</v>
@@ -3977,8 +3976,8 @@
       <c r="A96">
         <v>5</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>10</v>
+      <c r="B96" t="s">
+        <v>9</v>
       </c>
       <c r="C96">
         <v>2.4830000000000001E-2</v>
@@ -3988,8 +3987,8 @@
       <c r="A97">
         <v>7</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>10</v>
+      <c r="B97" t="s">
+        <v>9</v>
       </c>
       <c r="C97">
         <v>2.4830000000000001E-2</v>
@@ -3999,8 +3998,8 @@
       <c r="A98">
         <v>8</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>10</v>
+      <c r="B98" t="s">
+        <v>9</v>
       </c>
       <c r="C98">
         <v>2.4830000000000001E-2</v>
@@ -4010,8 +4009,8 @@
       <c r="A99">
         <v>9</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>10</v>
+      <c r="B99" t="s">
+        <v>9</v>
       </c>
       <c r="C99">
         <v>2.4830000000000001E-2</v>
@@ -4021,8 +4020,8 @@
       <c r="A100">
         <v>0</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>10</v>
+      <c r="B100" t="s">
+        <v>9</v>
       </c>
       <c r="C100">
         <v>2.4299999999999999E-2</v>
@@ -4066,7 +4065,7 @@
       <c r="A2">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -4077,7 +4076,7 @@
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -4088,7 +4087,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -4099,7 +4098,7 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5">
@@ -4110,7 +4109,7 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
@@ -4121,7 +4120,7 @@
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
       <c r="C7">
@@ -4132,7 +4131,7 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
@@ -4143,7 +4142,7 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
@@ -4154,7 +4153,7 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -4165,7 +4164,7 @@
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
@@ -4176,7 +4175,7 @@
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
@@ -4187,7 +4186,7 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
@@ -4198,7 +4197,7 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
@@ -4209,7 +4208,7 @@
       <c r="A15">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
@@ -4220,8 +4219,8 @@
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
       <c r="C16">
         <v>8.8929999999999995E-2</v>
@@ -4231,8 +4230,8 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
+      <c r="B17" t="s">
+        <v>11</v>
       </c>
       <c r="C17">
         <v>8.8929999999999995E-2</v>
@@ -4242,8 +4241,8 @@
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+      <c r="B18" t="s">
+        <v>11</v>
       </c>
       <c r="C18">
         <v>8.8929999999999995E-2</v>
@@ -4253,8 +4252,8 @@
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
       <c r="C19">
         <v>8.8929999999999995E-2</v>
@@ -4264,7 +4263,7 @@
       <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
@@ -4275,8 +4274,8 @@
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
+      <c r="B21" t="s">
+        <v>11</v>
       </c>
       <c r="C21">
         <v>8.6900000000000005E-2</v>
@@ -4286,7 +4285,7 @@
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
@@ -4297,7 +4296,7 @@
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
@@ -4308,7 +4307,7 @@
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
@@ -4319,7 +4318,7 @@
       <c r="A25">
         <v>7</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25">
@@ -4330,8 +4329,8 @@
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
+      <c r="B26" t="s">
+        <v>11</v>
       </c>
       <c r="C26">
         <v>8.2239999999999994E-2</v>
@@ -4341,7 +4340,7 @@
       <c r="A27">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
@@ -4352,8 +4351,8 @@
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
+      <c r="B28" t="s">
+        <v>11</v>
       </c>
       <c r="C28">
         <v>8.1240000000000007E-2</v>
@@ -4363,7 +4362,7 @@
       <c r="A29">
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29">
@@ -4374,8 +4373,8 @@
       <c r="A30">
         <v>7</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
+      <c r="B30" t="s">
+        <v>11</v>
       </c>
       <c r="C30">
         <v>7.9890000000000003E-2</v>
@@ -4385,7 +4384,7 @@
       <c r="A31">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
@@ -4396,8 +4395,8 @@
       <c r="A32">
         <v>0</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
+      <c r="B32" t="s">
+        <v>5</v>
       </c>
       <c r="C32">
         <v>7.5920000000000001E-2</v>
@@ -4407,8 +4406,8 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>6</v>
+      <c r="B33" t="s">
+        <v>5</v>
       </c>
       <c r="C33">
         <v>7.5920000000000001E-2</v>
@@ -4418,8 +4417,8 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
+      <c r="B34" t="s">
+        <v>5</v>
       </c>
       <c r="C34">
         <v>7.5920000000000001E-2</v>
@@ -4429,8 +4428,8 @@
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
+      <c r="B35" t="s">
+        <v>11</v>
       </c>
       <c r="C35">
         <v>7.5539999999999996E-2</v>
@@ -4440,8 +4439,8 @@
       <c r="A36">
         <v>3</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>6</v>
+      <c r="B36" t="s">
+        <v>5</v>
       </c>
       <c r="C36">
         <v>7.5410000000000005E-2</v>
@@ -4451,8 +4450,8 @@
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
+      <c r="B37" t="s">
+        <v>5</v>
       </c>
       <c r="C37">
         <v>7.5389999999999999E-2</v>
@@ -4462,8 +4461,8 @@
       <c r="A38">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
+      <c r="B38" t="s">
+        <v>11</v>
       </c>
       <c r="C38">
         <v>7.2639999999999996E-2</v>
@@ -4473,8 +4472,8 @@
       <c r="A39">
         <v>10</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
+      <c r="B39" t="s">
+        <v>11</v>
       </c>
       <c r="C39">
         <v>7.059E-2</v>
@@ -4484,8 +4483,8 @@
       <c r="A40">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
+      <c r="B40" t="s">
+        <v>5</v>
       </c>
       <c r="C40">
         <v>7.0309999999999997E-2</v>
@@ -4495,8 +4494,8 @@
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
+      <c r="B41" t="s">
+        <v>5</v>
       </c>
       <c r="C41">
         <v>6.7799999999999999E-2</v>
@@ -4506,8 +4505,8 @@
       <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
+      <c r="B42" t="s">
+        <v>5</v>
       </c>
       <c r="C42">
         <v>6.2799999999999995E-2</v>
@@ -4517,8 +4516,8 @@
       <c r="A43">
         <v>10</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
+      <c r="B43" t="s">
+        <v>5</v>
       </c>
       <c r="C43">
         <v>6.1670000000000003E-2</v>
@@ -4528,8 +4527,8 @@
       <c r="A44">
         <v>7</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
+      <c r="B44" t="s">
+        <v>5</v>
       </c>
       <c r="C44">
         <v>6.1490000000000003E-2</v>
@@ -4539,8 +4538,8 @@
       <c r="A45">
         <v>8</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>6</v>
+      <c r="B45" t="s">
+        <v>5</v>
       </c>
       <c r="C45">
         <v>5.9549999999999999E-2</v>
@@ -4550,8 +4549,8 @@
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46">
         <v>5.4710000000000002E-2</v>
@@ -4561,8 +4560,8 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47">
         <v>5.4710000000000002E-2</v>
@@ -4572,8 +4571,8 @@
       <c r="A48">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>8</v>
+      <c r="B48" t="s">
+        <v>7</v>
       </c>
       <c r="C48">
         <v>5.4710000000000002E-2</v>
@@ -4583,8 +4582,8 @@
       <c r="A49">
         <v>3</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>8</v>
+      <c r="B49" t="s">
+        <v>7</v>
       </c>
       <c r="C49">
         <v>5.4710000000000002E-2</v>
@@ -4594,8 +4593,8 @@
       <c r="A50">
         <v>4</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>8</v>
+      <c r="B50" t="s">
+        <v>7</v>
       </c>
       <c r="C50">
         <v>5.4710000000000002E-2</v>
@@ -4605,8 +4604,8 @@
       <c r="A51">
         <v>5</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51">
         <v>5.3769999999999998E-2</v>
@@ -4616,8 +4615,8 @@
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52">
         <v>5.3350000000000002E-2</v>
@@ -4627,8 +4626,8 @@
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>8</v>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53">
         <v>4.8829999999999998E-2</v>
@@ -4638,8 +4637,8 @@
       <c r="A54">
         <v>8</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54">
         <v>4.8309999999999999E-2</v>
@@ -4649,8 +4648,8 @@
       <c r="A55">
         <v>9</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55">
         <v>4.7550000000000002E-2</v>
@@ -4660,8 +4659,8 @@
       <c r="A56">
         <v>10</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56">
         <v>4.7100000000000003E-2</v>
@@ -4671,8 +4670,8 @@
       <c r="A57">
         <v>8</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
         <v>4.3119999999999999E-2</v>
@@ -4682,8 +4681,8 @@
       <c r="A58">
         <v>0</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
         <v>4.267E-2</v>
@@ -4693,8 +4692,8 @@
       <c r="A59">
         <v>1</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59">
         <v>4.267E-2</v>
@@ -4704,8 +4703,8 @@
       <c r="A60">
         <v>2</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
         <v>4.267E-2</v>
@@ -4715,8 +4714,8 @@
       <c r="A61">
         <v>3</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>7</v>
+      <c r="B61" t="s">
+        <v>6</v>
       </c>
       <c r="C61">
         <v>4.267E-2</v>
@@ -4726,8 +4725,8 @@
       <c r="A62">
         <v>4</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62">
         <v>4.267E-2</v>
@@ -4737,8 +4736,8 @@
       <c r="A63">
         <v>5</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63">
         <v>4.267E-2</v>
@@ -4748,8 +4747,8 @@
       <c r="A64">
         <v>6</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
         <v>4.2279999999999998E-2</v>
@@ -4759,8 +4758,8 @@
       <c r="A65">
         <v>7</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
         <v>4.0390000000000002E-2</v>
@@ -4770,8 +4769,8 @@
       <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
       <c r="C66">
         <v>3.9190000000000003E-2</v>
@@ -4781,8 +4780,8 @@
       <c r="A67">
         <v>9</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>7</v>
+      <c r="B67" t="s">
+        <v>6</v>
       </c>
       <c r="C67">
         <v>3.7769999999999998E-2</v>
@@ -4792,8 +4791,8 @@
       <c r="A68">
         <v>9</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
+      <c r="B68" t="s">
+        <v>8</v>
       </c>
       <c r="C68">
         <v>3.635E-2</v>
@@ -4803,8 +4802,8 @@
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69">
         <v>3.5470000000000002E-2</v>
@@ -4814,8 +4813,8 @@
       <c r="A70">
         <v>2</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70">
         <v>3.4930000000000003E-2</v>
@@ -4825,8 +4824,8 @@
       <c r="A71">
         <v>3</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71">
         <v>3.4909999999999997E-2</v>
@@ -4836,8 +4835,8 @@
       <c r="A72">
         <v>8</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72">
         <v>3.4770000000000002E-2</v>
@@ -4847,8 +4846,8 @@
       <c r="A73">
         <v>7</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73">
         <v>3.474E-2</v>
@@ -4858,8 +4857,8 @@
       <c r="A74">
         <v>6</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74">
         <v>3.4520000000000002E-2</v>
@@ -4869,8 +4868,8 @@
       <c r="A75">
         <v>5</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75">
         <v>3.4349999999999999E-2</v>
@@ -4880,8 +4879,8 @@
       <c r="A76">
         <v>4</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76">
         <v>3.3939999999999998E-2</v>
@@ -4891,8 +4890,8 @@
       <c r="A77">
         <v>1</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>9</v>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77">
         <v>3.3020000000000001E-2</v>
@@ -4902,8 +4901,8 @@
       <c r="A78">
         <v>0</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78">
         <v>3.2329999999999998E-2</v>
@@ -4913,8 +4912,8 @@
       <c r="A79">
         <v>10</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>11</v>
+      <c r="B79" t="s">
+        <v>10</v>
       </c>
       <c r="C79">
         <v>2.8000000000000001E-2</v>
@@ -4924,8 +4923,8 @@
       <c r="A80">
         <v>8</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>11</v>
+      <c r="B80" t="s">
+        <v>10</v>
       </c>
       <c r="C80">
         <v>2.5260000000000001E-2</v>
@@ -4935,8 +4934,8 @@
       <c r="A81">
         <v>9</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>11</v>
+      <c r="B81" t="s">
+        <v>10</v>
       </c>
       <c r="C81">
         <v>2.512E-2</v>
@@ -4946,8 +4945,8 @@
       <c r="A82">
         <v>7</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
+      <c r="B82" t="s">
+        <v>10</v>
       </c>
       <c r="C82">
         <v>2.4570000000000002E-2</v>
@@ -4957,8 +4956,8 @@
       <c r="A83">
         <v>6</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>11</v>
+      <c r="B83" t="s">
+        <v>10</v>
       </c>
       <c r="C83">
         <v>2.4420000000000001E-2</v>
@@ -4968,8 +4967,8 @@
       <c r="A84">
         <v>1</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>10</v>
+      <c r="B84" t="s">
+        <v>9</v>
       </c>
       <c r="C84">
         <v>2.3980000000000001E-2</v>
@@ -4979,8 +4978,8 @@
       <c r="A85">
         <v>2</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
+      <c r="B85" t="s">
+        <v>9</v>
       </c>
       <c r="C85">
         <v>2.3980000000000001E-2</v>
@@ -4990,8 +4989,8 @@
       <c r="A86">
         <v>3</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>10</v>
+      <c r="B86" t="s">
+        <v>9</v>
       </c>
       <c r="C86">
         <v>2.3980000000000001E-2</v>
@@ -5001,8 +5000,8 @@
       <c r="A87">
         <v>4</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>10</v>
+      <c r="B87" t="s">
+        <v>9</v>
       </c>
       <c r="C87">
         <v>2.3980000000000001E-2</v>
@@ -5012,8 +5011,8 @@
       <c r="A88">
         <v>5</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>10</v>
+      <c r="B88" t="s">
+        <v>9</v>
       </c>
       <c r="C88">
         <v>2.3980000000000001E-2</v>
@@ -5023,8 +5022,8 @@
       <c r="A89">
         <v>6</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>10</v>
+      <c r="B89" t="s">
+        <v>9</v>
       </c>
       <c r="C89">
         <v>2.3980000000000001E-2</v>
@@ -5034,8 +5033,8 @@
       <c r="A90">
         <v>7</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>10</v>
+      <c r="B90" t="s">
+        <v>9</v>
       </c>
       <c r="C90">
         <v>2.3980000000000001E-2</v>
@@ -5045,8 +5044,8 @@
       <c r="A91">
         <v>8</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>10</v>
+      <c r="B91" t="s">
+        <v>9</v>
       </c>
       <c r="C91">
         <v>2.3980000000000001E-2</v>
@@ -5056,8 +5055,8 @@
       <c r="A92">
         <v>9</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
+      <c r="B92" t="s">
+        <v>9</v>
       </c>
       <c r="C92">
         <v>2.3980000000000001E-2</v>
@@ -5067,8 +5066,8 @@
       <c r="A93">
         <v>10</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>10</v>
+      <c r="B93" t="s">
+        <v>9</v>
       </c>
       <c r="C93">
         <v>2.349E-2</v>
@@ -5078,8 +5077,8 @@
       <c r="A94">
         <v>0</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>10</v>
+      <c r="B94" t="s">
+        <v>9</v>
       </c>
       <c r="C94">
         <v>2.3449999999999999E-2</v>
@@ -5089,8 +5088,8 @@
       <c r="A95">
         <v>0</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>11</v>
+      <c r="B95" t="s">
+        <v>10</v>
       </c>
       <c r="C95">
         <v>2.307E-2</v>
@@ -5100,8 +5099,8 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>11</v>
+      <c r="B96" t="s">
+        <v>10</v>
       </c>
       <c r="C96">
         <v>2.307E-2</v>
@@ -5111,8 +5110,8 @@
       <c r="A97">
         <v>2</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>11</v>
+      <c r="B97" t="s">
+        <v>10</v>
       </c>
       <c r="C97">
         <v>2.307E-2</v>
@@ -5122,8 +5121,8 @@
       <c r="A98">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>11</v>
+      <c r="B98" t="s">
+        <v>10</v>
       </c>
       <c r="C98">
         <v>2.307E-2</v>
@@ -5133,8 +5132,8 @@
       <c r="A99">
         <v>4</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>11</v>
+      <c r="B99" t="s">
+        <v>10</v>
       </c>
       <c r="C99">
         <v>2.307E-2</v>
@@ -5144,8 +5143,8 @@
       <c r="A100">
         <v>5</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>11</v>
+      <c r="B100" t="s">
+        <v>10</v>
       </c>
       <c r="C100">
         <v>2.307E-2</v>
@@ -5189,7 +5188,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -5200,7 +5199,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -5211,7 +5210,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
@@ -5222,8 +5221,8 @@
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
       <c r="C5">
         <v>6.769E-2</v>
@@ -5233,8 +5232,8 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" t="s">
+        <v>5</v>
       </c>
       <c r="C6">
         <v>6.769E-2</v>
@@ -5244,8 +5243,8 @@
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>5</v>
       </c>
       <c r="C7">
         <v>6.769E-2</v>
@@ -5255,8 +5254,8 @@
       <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
+      <c r="B8" t="s">
+        <v>5</v>
       </c>
       <c r="C8">
         <v>6.769E-2</v>
@@ -5266,8 +5265,8 @@
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
+      <c r="B9" t="s">
+        <v>5</v>
       </c>
       <c r="C9">
         <v>6.6869999999999999E-2</v>
@@ -5277,7 +5276,7 @@
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -5288,7 +5287,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
@@ -5299,7 +5298,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
@@ -5310,7 +5309,7 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
@@ -5321,7 +5320,7 @@
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14">
@@ -5332,7 +5331,7 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
@@ -5343,7 +5342,7 @@
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
@@ -5354,7 +5353,7 @@
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
@@ -5365,8 +5364,8 @@
       <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
+      <c r="B18" t="s">
+        <v>5</v>
       </c>
       <c r="C18">
         <v>5.8290000000000002E-2</v>
@@ -5376,8 +5375,8 @@
       <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
+      <c r="B19" t="s">
+        <v>5</v>
       </c>
       <c r="C19">
         <v>5.6950000000000001E-2</v>
@@ -5387,8 +5386,8 @@
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
+      <c r="B20" t="s">
+        <v>11</v>
       </c>
       <c r="C20">
         <v>5.6660000000000002E-2</v>
@@ -5398,8 +5397,8 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
+      <c r="B21" t="s">
+        <v>11</v>
       </c>
       <c r="C21">
         <v>5.6660000000000002E-2</v>
@@ -5409,8 +5408,8 @@
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
+      <c r="B22" t="s">
+        <v>11</v>
       </c>
       <c r="C22">
         <v>5.6660000000000002E-2</v>
@@ -5420,8 +5419,8 @@
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>5</v>
+      <c r="B23" t="s">
+        <v>11</v>
       </c>
       <c r="C23">
         <v>5.6660000000000002E-2</v>
@@ -5431,8 +5430,8 @@
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
+      <c r="B24" t="s">
+        <v>11</v>
       </c>
       <c r="C24">
         <v>5.4809999999999998E-2</v>
@@ -5442,7 +5441,7 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
       <c r="C25">
@@ -5453,7 +5452,7 @@
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26">
@@ -5464,7 +5463,7 @@
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
@@ -5475,8 +5474,8 @@
       <c r="A28">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
+      <c r="B28" t="s">
+        <v>5</v>
       </c>
       <c r="C28">
         <v>5.4120000000000001E-2</v>
@@ -5486,7 +5485,7 @@
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29">
@@ -5497,8 +5496,8 @@
       <c r="A30">
         <v>8</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
+      <c r="B30" t="s">
+        <v>5</v>
       </c>
       <c r="C30">
         <v>5.3960000000000001E-2</v>
@@ -5508,7 +5507,7 @@
       <c r="A31">
         <v>0</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31">
@@ -5519,8 +5518,8 @@
       <c r="A32">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
+      <c r="B32" t="s">
+        <v>5</v>
       </c>
       <c r="C32">
         <v>5.1200000000000002E-2</v>
@@ -5530,8 +5529,8 @@
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
+      <c r="B33" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
         <v>4.9619999999999997E-2</v>
@@ -5541,8 +5540,8 @@
       <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
+      <c r="B34" t="s">
+        <v>11</v>
       </c>
       <c r="C34">
         <v>4.9340000000000002E-2</v>
@@ -5552,8 +5551,8 @@
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>6</v>
+      <c r="B35" t="s">
+        <v>5</v>
       </c>
       <c r="C35">
         <v>4.8460000000000003E-2</v>
@@ -5563,8 +5562,8 @@
       <c r="A36">
         <v>7</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
+      <c r="B36" t="s">
+        <v>11</v>
       </c>
       <c r="C36">
         <v>4.8370000000000003E-2</v>
@@ -5574,7 +5573,7 @@
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37">
@@ -5585,8 +5584,8 @@
       <c r="A38">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
+      <c r="B38" t="s">
+        <v>11</v>
       </c>
       <c r="C38">
         <v>4.8050000000000002E-2</v>
@@ -5596,8 +5595,8 @@
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
+      <c r="B39" t="s">
+        <v>11</v>
       </c>
       <c r="C39">
         <v>4.657E-2</v>
@@ -5607,8 +5606,8 @@
       <c r="A40">
         <v>10</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>5</v>
+      <c r="B40" t="s">
+        <v>11</v>
       </c>
       <c r="C40">
         <v>4.6359999999999998E-2</v>
@@ -5618,7 +5617,7 @@
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41">
@@ -5629,7 +5628,7 @@
       <c r="A42">
         <v>7</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
@@ -5640,7 +5639,7 @@
       <c r="A43">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43">
@@ -5651,7 +5650,7 @@
       <c r="A44">
         <v>9</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>4</v>
       </c>
       <c r="C44">
@@ -5662,7 +5661,7 @@
       <c r="A45">
         <v>10</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45">
@@ -5673,8 +5672,8 @@
       <c r="A46">
         <v>0</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
+      <c r="B46" t="s">
+        <v>6</v>
       </c>
       <c r="C46">
         <v>3.3099999999999997E-2</v>
@@ -5684,8 +5683,8 @@
       <c r="A47">
         <v>1</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
       <c r="C47">
         <v>3.3099999999999997E-2</v>
@@ -5695,8 +5694,8 @@
       <c r="A48">
         <v>2</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
+      <c r="B48" t="s">
+        <v>6</v>
       </c>
       <c r="C48">
         <v>3.3099999999999997E-2</v>
@@ -5706,8 +5705,8 @@
       <c r="A49">
         <v>3</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
+      <c r="B49" t="s">
+        <v>6</v>
       </c>
       <c r="C49">
         <v>3.3099999999999997E-2</v>
@@ -5717,8 +5716,8 @@
       <c r="A50">
         <v>4</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
       <c r="C50">
         <v>3.3079999999999998E-2</v>
@@ -5728,8 +5727,8 @@
       <c r="A51">
         <v>1</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51">
         <v>3.2980000000000002E-2</v>
@@ -5739,8 +5738,8 @@
       <c r="A52">
         <v>2</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52">
         <v>3.2980000000000002E-2</v>
@@ -5750,8 +5749,8 @@
       <c r="A53">
         <v>3</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>8</v>
+      <c r="B53" t="s">
+        <v>7</v>
       </c>
       <c r="C53">
         <v>3.2980000000000002E-2</v>
@@ -5761,8 +5760,8 @@
       <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54">
         <v>3.2969999999999999E-2</v>
@@ -5772,8 +5771,8 @@
       <c r="A55">
         <v>5</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
         <v>3.27E-2</v>
@@ -5783,8 +5782,8 @@
       <c r="A56">
         <v>5</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56">
         <v>3.2500000000000001E-2</v>
@@ -5794,8 +5793,8 @@
       <c r="A57">
         <v>4</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
       <c r="C57">
         <v>3.218E-2</v>
@@ -5805,8 +5804,8 @@
       <c r="A58">
         <v>6</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>8</v>
+      <c r="B58" t="s">
+        <v>7</v>
       </c>
       <c r="C58">
         <v>3.1519999999999999E-2</v>
@@ -5816,8 +5815,8 @@
       <c r="A59">
         <v>6</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59">
         <v>2.9010000000000001E-2</v>
@@ -5827,8 +5826,8 @@
       <c r="A60">
         <v>7</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>8</v>
+      <c r="B60" t="s">
+        <v>7</v>
       </c>
       <c r="C60">
         <v>2.8309999999999998E-2</v>
@@ -5838,8 +5837,8 @@
       <c r="A61">
         <v>9</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61">
         <v>2.8119999999999999E-2</v>
@@ -5849,8 +5848,8 @@
       <c r="A62">
         <v>8</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62">
         <v>2.7660000000000001E-2</v>
@@ -5860,8 +5859,8 @@
       <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>7</v>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63">
         <v>2.622E-2</v>
@@ -5871,8 +5870,8 @@
       <c r="A64">
         <v>10</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>8</v>
+      <c r="B64" t="s">
+        <v>7</v>
       </c>
       <c r="C64">
         <v>2.588E-2</v>
@@ -5882,8 +5881,8 @@
       <c r="A65">
         <v>8</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
         <v>2.5059999999999999E-2</v>
@@ -5893,8 +5892,8 @@
       <c r="A66">
         <v>9</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>7</v>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
       <c r="C66">
         <v>2.2790000000000001E-2</v>
@@ -5904,8 +5903,8 @@
       <c r="A67">
         <v>8</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
+      <c r="B67" t="s">
+        <v>8</v>
       </c>
       <c r="C67">
         <v>2.2749999999999999E-2</v>
@@ -5915,8 +5914,8 @@
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>7</v>
+      <c r="B68" t="s">
+        <v>6</v>
       </c>
       <c r="C68">
         <v>2.2749999999999999E-2</v>
@@ -5926,8 +5925,8 @@
       <c r="A69">
         <v>9</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69">
         <v>2.2509999999999999E-2</v>
@@ -5937,8 +5936,8 @@
       <c r="A70">
         <v>2</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70">
         <v>2.1590000000000002E-2</v>
@@ -5948,8 +5947,8 @@
       <c r="A71">
         <v>5</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71">
         <v>2.1360000000000001E-2</v>
@@ -5959,8 +5958,8 @@
       <c r="A72">
         <v>6</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72">
         <v>2.1360000000000001E-2</v>
@@ -5970,8 +5969,8 @@
       <c r="A73">
         <v>0</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73">
         <v>2.128E-2</v>
@@ -5981,8 +5980,8 @@
       <c r="A74">
         <v>4</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74">
         <v>2.1059999999999999E-2</v>
@@ -5992,8 +5991,8 @@
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75">
         <v>2.0740000000000001E-2</v>
@@ -6003,8 +6002,8 @@
       <c r="A76">
         <v>10</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76">
         <v>2.0660000000000001E-2</v>
@@ -6014,8 +6013,8 @@
       <c r="A77">
         <v>3</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>9</v>
+      <c r="B77" t="s">
+        <v>8</v>
       </c>
       <c r="C77">
         <v>2.0480000000000002E-2</v>
@@ -6025,8 +6024,8 @@
       <c r="A78">
         <v>7</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>9</v>
+      <c r="B78" t="s">
+        <v>8</v>
       </c>
       <c r="C78">
         <v>2.0449999999999999E-2</v>
@@ -6036,8 +6035,8 @@
       <c r="A79">
         <v>10</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>11</v>
+      <c r="B79" t="s">
+        <v>10</v>
       </c>
       <c r="C79">
         <v>1.5859999999999999E-2</v>
@@ -6047,8 +6046,8 @@
       <c r="A80">
         <v>0</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>10</v>
+      <c r="B80" t="s">
+        <v>9</v>
       </c>
       <c r="C80">
         <v>1.4840000000000001E-2</v>
@@ -6058,8 +6057,8 @@
       <c r="A81">
         <v>1</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>10</v>
+      <c r="B81" t="s">
+        <v>9</v>
       </c>
       <c r="C81">
         <v>1.4840000000000001E-2</v>
@@ -6069,8 +6068,8 @@
       <c r="A82">
         <v>2</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>10</v>
+      <c r="B82" t="s">
+        <v>9</v>
       </c>
       <c r="C82">
         <v>1.4840000000000001E-2</v>
@@ -6080,8 +6079,8 @@
       <c r="A83">
         <v>3</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>10</v>
+      <c r="B83" t="s">
+        <v>9</v>
       </c>
       <c r="C83">
         <v>1.4840000000000001E-2</v>
@@ -6091,8 +6090,8 @@
       <c r="A84">
         <v>4</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>10</v>
+      <c r="B84" t="s">
+        <v>9</v>
       </c>
       <c r="C84">
         <v>1.4840000000000001E-2</v>
@@ -6102,8 +6101,8 @@
       <c r="A85">
         <v>5</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
+      <c r="B85" t="s">
+        <v>9</v>
       </c>
       <c r="C85">
         <v>1.4840000000000001E-2</v>
@@ -6113,8 +6112,8 @@
       <c r="A86">
         <v>6</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>10</v>
+      <c r="B86" t="s">
+        <v>9</v>
       </c>
       <c r="C86">
         <v>1.4840000000000001E-2</v>
@@ -6124,8 +6123,8 @@
       <c r="A87">
         <v>9</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>10</v>
+      <c r="B87" t="s">
+        <v>9</v>
       </c>
       <c r="C87">
         <v>1.4590000000000001E-2</v>
@@ -6135,8 +6134,8 @@
       <c r="A88">
         <v>10</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>10</v>
+      <c r="B88" t="s">
+        <v>9</v>
       </c>
       <c r="C88">
         <v>1.4409999999999999E-2</v>
@@ -6146,8 +6145,8 @@
       <c r="A89">
         <v>7</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>10</v>
+      <c r="B89" t="s">
+        <v>9</v>
       </c>
       <c r="C89">
         <v>1.438E-2</v>
@@ -6157,8 +6156,8 @@
       <c r="A90">
         <v>8</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>10</v>
+      <c r="B90" t="s">
+        <v>9</v>
       </c>
       <c r="C90">
         <v>1.438E-2</v>
@@ -6168,8 +6167,8 @@
       <c r="A91">
         <v>8</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>11</v>
+      <c r="B91" t="s">
+        <v>10</v>
       </c>
       <c r="C91">
         <v>1.38E-2</v>
@@ -6179,8 +6178,8 @@
       <c r="A92">
         <v>9</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>11</v>
+      <c r="B92" t="s">
+        <v>10</v>
       </c>
       <c r="C92">
         <v>1.363E-2</v>
@@ -6190,8 +6189,8 @@
       <c r="A93">
         <v>7</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>11</v>
+      <c r="B93" t="s">
+        <v>10</v>
       </c>
       <c r="C93">
         <v>9.3799999999999994E-3</v>
@@ -6201,8 +6200,8 @@
       <c r="A94">
         <v>6</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>11</v>
+      <c r="B94" t="s">
+        <v>10</v>
       </c>
       <c r="C94">
         <v>8.2199999999999999E-3</v>
@@ -6212,8 +6211,8 @@
       <c r="A95">
         <v>0</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>11</v>
+      <c r="B95" t="s">
+        <v>10</v>
       </c>
       <c r="C95">
         <v>7.8700000000000003E-3</v>
@@ -6223,8 +6222,8 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>11</v>
+      <c r="B96" t="s">
+        <v>10</v>
       </c>
       <c r="C96">
         <v>7.8700000000000003E-3</v>
@@ -6234,8 +6233,8 @@
       <c r="A97">
         <v>2</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>11</v>
+      <c r="B97" t="s">
+        <v>10</v>
       </c>
       <c r="C97">
         <v>7.8700000000000003E-3</v>
@@ -6245,8 +6244,8 @@
       <c r="A98">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>11</v>
+      <c r="B98" t="s">
+        <v>10</v>
       </c>
       <c r="C98">
         <v>7.8700000000000003E-3</v>
@@ -6256,8 +6255,8 @@
       <c r="A99">
         <v>4</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>11</v>
+      <c r="B99" t="s">
+        <v>10</v>
       </c>
       <c r="C99">
         <v>7.8700000000000003E-3</v>
@@ -6267,8 +6266,8 @@
       <c r="A100">
         <v>5</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>11</v>
+      <c r="B100" t="s">
+        <v>10</v>
       </c>
       <c r="C100">
         <v>6.6100000000000004E-3</v>
@@ -6312,7 +6311,7 @@
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -6323,7 +6322,7 @@
       <c r="A3">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -6334,7 +6333,7 @@
       <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
@@ -6345,7 +6344,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -6356,7 +6355,7 @@
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
@@ -6367,7 +6366,7 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -6378,7 +6377,7 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
@@ -6389,7 +6388,7 @@
       <c r="A9">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
@@ -6400,7 +6399,7 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -6411,7 +6410,7 @@
       <c r="A11">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
@@ -6422,7 +6421,7 @@
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
@@ -6433,8 +6432,8 @@
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
+      <c r="B13" t="s">
+        <v>5</v>
       </c>
       <c r="C13">
         <v>5.8200000000000002E-2</v>
@@ -6444,8 +6443,8 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
+      <c r="B14" t="s">
+        <v>5</v>
       </c>
       <c r="C14">
         <v>5.8200000000000002E-2</v>
@@ -6455,8 +6454,8 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
+      <c r="B15" t="s">
+        <v>5</v>
       </c>
       <c r="C15">
         <v>5.8200000000000002E-2</v>
@@ -6466,8 +6465,8 @@
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
+      <c r="B16" t="s">
+        <v>5</v>
       </c>
       <c r="C16">
         <v>5.8200000000000002E-2</v>
@@ -6477,8 +6476,8 @@
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
+      <c r="B17" t="s">
+        <v>5</v>
       </c>
       <c r="C17">
         <v>5.7349999999999998E-2</v>
@@ -6488,7 +6487,7 @@
       <c r="A18">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
@@ -6499,7 +6498,7 @@
       <c r="A19">
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
       <c r="C19">
@@ -6510,7 +6509,7 @@
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20">
@@ -6521,8 +6520,8 @@
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
       <c r="C21">
         <v>5.5530000000000003E-2</v>
@@ -6532,7 +6531,7 @@
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22">
@@ -6543,8 +6542,8 @@
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
+      <c r="B23" t="s">
+        <v>5</v>
       </c>
       <c r="C23">
         <v>5.5320000000000001E-2</v>
@@ -6554,7 +6553,7 @@
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>4</v>
       </c>
       <c r="C24">
@@ -6565,8 +6564,8 @@
       <c r="A25">
         <v>7</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
+      <c r="B25" t="s">
+        <v>5</v>
       </c>
       <c r="C25">
         <v>5.509E-2</v>
@@ -6576,8 +6575,8 @@
       <c r="A26">
         <v>6</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
+      <c r="B26" t="s">
+        <v>5</v>
       </c>
       <c r="C26">
         <v>5.4289999999999998E-2</v>
@@ -6587,8 +6586,8 @@
       <c r="A27">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
+      <c r="B27" t="s">
+        <v>5</v>
       </c>
       <c r="C27">
         <v>5.1159999999999997E-2</v>
@@ -6598,8 +6597,8 @@
       <c r="A28">
         <v>0</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
+      <c r="B28" t="s">
+        <v>11</v>
       </c>
       <c r="C28">
         <v>5.0130000000000001E-2</v>
@@ -6609,8 +6608,8 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
+      <c r="B29" t="s">
+        <v>11</v>
       </c>
       <c r="C29">
         <v>5.0130000000000001E-2</v>
@@ -6620,8 +6619,8 @@
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
+      <c r="B30" t="s">
+        <v>11</v>
       </c>
       <c r="C30">
         <v>5.0130000000000001E-2</v>
@@ -6631,8 +6630,8 @@
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
+      <c r="B31" t="s">
+        <v>11</v>
       </c>
       <c r="C31">
         <v>5.0130000000000001E-2</v>
@@ -6642,8 +6641,8 @@
       <c r="A32">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
+      <c r="B32" t="s">
+        <v>5</v>
       </c>
       <c r="C32">
         <v>4.9410000000000003E-2</v>
@@ -6653,8 +6652,8 @@
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
+      <c r="B33" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
         <v>4.863E-2</v>
@@ -6664,8 +6663,8 @@
       <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
+      <c r="B34" t="s">
+        <v>11</v>
       </c>
       <c r="C34">
         <v>4.8460000000000003E-2</v>
@@ -6675,8 +6674,8 @@
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
+      <c r="B35" t="s">
+        <v>11</v>
       </c>
       <c r="C35">
         <v>4.8079999999999998E-2</v>
@@ -6686,8 +6685,8 @@
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
+      <c r="B36" t="s">
+        <v>11</v>
       </c>
       <c r="C36">
         <v>4.7870000000000003E-2</v>
@@ -6697,7 +6696,7 @@
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37">
@@ -6708,8 +6707,8 @@
       <c r="A38">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>5</v>
+      <c r="B38" t="s">
+        <v>11</v>
       </c>
       <c r="C38">
         <v>4.589E-2</v>
@@ -6719,8 +6718,8 @@
       <c r="A39">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>5</v>
+      <c r="B39" t="s">
+        <v>11</v>
       </c>
       <c r="C39">
         <v>4.4609999999999997E-2</v>
@@ -6730,7 +6729,7 @@
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>4</v>
       </c>
       <c r="C40">
@@ -6741,7 +6740,7 @@
       <c r="A41">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41">
@@ -6752,7 +6751,7 @@
       <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
@@ -6763,7 +6762,7 @@
       <c r="A43">
         <v>7</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43">
@@ -6774,8 +6773,8 @@
       <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
+      <c r="B44" t="s">
+        <v>11</v>
       </c>
       <c r="C44">
         <v>4.3290000000000002E-2</v>
@@ -6785,7 +6784,7 @@
       <c r="A45">
         <v>10</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45">
@@ -6796,8 +6795,8 @@
       <c r="A46">
         <v>6</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>8</v>
+      <c r="B46" t="s">
+        <v>7</v>
       </c>
       <c r="C46">
         <v>3.099E-2</v>
@@ -6807,8 +6806,8 @@
       <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>8</v>
+      <c r="B47" t="s">
+        <v>7</v>
       </c>
       <c r="C47">
         <v>2.9690000000000001E-2</v>
@@ -6818,8 +6817,8 @@
       <c r="A48">
         <v>0</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
+      <c r="B48" t="s">
+        <v>6</v>
       </c>
       <c r="C48">
         <v>2.9569999999999999E-2</v>
@@ -6829,8 +6828,8 @@
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
+      <c r="B49" t="s">
+        <v>6</v>
       </c>
       <c r="C49">
         <v>2.9569999999999999E-2</v>
@@ -6840,8 +6839,8 @@
       <c r="A50">
         <v>2</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
       <c r="C50">
         <v>2.9569999999999999E-2</v>
@@ -6851,8 +6850,8 @@
       <c r="A51">
         <v>3</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>7</v>
+      <c r="B51" t="s">
+        <v>6</v>
       </c>
       <c r="C51">
         <v>2.9569999999999999E-2</v>
@@ -6862,8 +6861,8 @@
       <c r="A52">
         <v>7</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52">
         <v>2.955E-2</v>
@@ -6873,8 +6872,8 @@
       <c r="A53">
         <v>4</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53">
         <v>2.9520000000000001E-2</v>
@@ -6884,8 +6883,8 @@
       <c r="A54">
         <v>8</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54">
         <v>2.9440000000000001E-2</v>
@@ -6895,8 +6894,8 @@
       <c r="A55">
         <v>5</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>7</v>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
         <v>2.9399999999999999E-2</v>
@@ -6906,8 +6905,8 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56">
         <v>2.9270000000000001E-2</v>
@@ -6917,8 +6916,8 @@
       <c r="A57">
         <v>2</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
       <c r="C57">
         <v>2.9270000000000001E-2</v>
@@ -6928,8 +6927,8 @@
       <c r="A58">
         <v>3</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>8</v>
+      <c r="B58" t="s">
+        <v>7</v>
       </c>
       <c r="C58">
         <v>2.9270000000000001E-2</v>
@@ -6939,8 +6938,8 @@
       <c r="A59">
         <v>0</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>8</v>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59">
         <v>2.9260000000000001E-2</v>
@@ -6950,8 +6949,8 @@
       <c r="A60">
         <v>4</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>8</v>
+      <c r="B60" t="s">
+        <v>7</v>
       </c>
       <c r="C60">
         <v>2.852E-2</v>
@@ -6961,8 +6960,8 @@
       <c r="A61">
         <v>9</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61">
         <v>2.8510000000000001E-2</v>
@@ -6972,8 +6971,8 @@
       <c r="A62">
         <v>6</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>7</v>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62">
         <v>2.7400000000000001E-2</v>
@@ -6983,8 +6982,8 @@
       <c r="A63">
         <v>10</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
+      <c r="B63" t="s">
+        <v>7</v>
       </c>
       <c r="C63">
         <v>2.691E-2</v>
@@ -6994,8 +6993,8 @@
       <c r="A64">
         <v>7</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>7</v>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
         <v>2.4830000000000001E-2</v>
@@ -7005,8 +7004,8 @@
       <c r="A65">
         <v>8</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>7</v>
+      <c r="B65" t="s">
+        <v>6</v>
       </c>
       <c r="C65">
         <v>2.4340000000000001E-2</v>
@@ -7016,8 +7015,8 @@
       <c r="A66">
         <v>8</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>9</v>
+      <c r="B66" t="s">
+        <v>8</v>
       </c>
       <c r="C66">
         <v>2.1930000000000002E-2</v>
@@ -7027,8 +7026,8 @@
       <c r="A67">
         <v>9</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>9</v>
+      <c r="B67" t="s">
+        <v>8</v>
       </c>
       <c r="C67">
         <v>2.1870000000000001E-2</v>
@@ -7038,8 +7037,8 @@
       <c r="A68">
         <v>2</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
+      <c r="B68" t="s">
+        <v>8</v>
       </c>
       <c r="C68">
         <v>2.1749999999999999E-2</v>
@@ -7049,8 +7048,8 @@
       <c r="A69">
         <v>10</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69">
         <v>2.0969999999999999E-2</v>
@@ -7060,8 +7059,8 @@
       <c r="A70">
         <v>0</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70">
         <v>2.0740000000000001E-2</v>
@@ -7071,8 +7070,8 @@
       <c r="A71">
         <v>5</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71">
         <v>2.053E-2</v>
@@ -7082,8 +7081,8 @@
       <c r="A72">
         <v>6</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72">
         <v>2.053E-2</v>
@@ -7093,8 +7092,8 @@
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73">
         <v>2.0500000000000001E-2</v>
@@ -7104,8 +7103,8 @@
       <c r="A74">
         <v>3</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>9</v>
+      <c r="B74" t="s">
+        <v>8</v>
       </c>
       <c r="C74">
         <v>2.0199999999999999E-2</v>
@@ -7115,8 +7114,8 @@
       <c r="A75">
         <v>4</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75">
         <v>2.0199999999999999E-2</v>
@@ -7126,8 +7125,8 @@
       <c r="A76">
         <v>7</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>9</v>
+      <c r="B76" t="s">
+        <v>8</v>
       </c>
       <c r="C76">
         <v>2.018E-2</v>
@@ -7137,8 +7136,8 @@
       <c r="A77">
         <v>9</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>7</v>
+      <c r="B77" t="s">
+        <v>6</v>
       </c>
       <c r="C77">
         <v>1.942E-2</v>
@@ -7148,8 +7147,8 @@
       <c r="A78">
         <v>10</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>7</v>
+      <c r="B78" t="s">
+        <v>6</v>
       </c>
       <c r="C78">
         <v>1.8589999999999999E-2</v>
@@ -7159,8 +7158,8 @@
       <c r="A79">
         <v>9</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>11</v>
+      <c r="B79" t="s">
+        <v>10</v>
       </c>
       <c r="C79">
         <v>1.353E-2</v>
@@ -7170,8 +7169,8 @@
       <c r="A80">
         <v>8</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>11</v>
+      <c r="B80" t="s">
+        <v>10</v>
       </c>
       <c r="C80">
         <v>1.295E-2</v>
@@ -7181,8 +7180,8 @@
       <c r="A81">
         <v>10</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>11</v>
+      <c r="B81" t="s">
+        <v>10</v>
       </c>
       <c r="C81">
         <v>1.239E-2</v>
@@ -7192,8 +7191,8 @@
       <c r="A82">
         <v>10</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>10</v>
+      <c r="B82" t="s">
+        <v>9</v>
       </c>
       <c r="C82">
         <v>1.094E-2</v>
@@ -7203,8 +7202,8 @@
       <c r="A83">
         <v>9</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>10</v>
+      <c r="B83" t="s">
+        <v>9</v>
       </c>
       <c r="C83">
         <v>1.0189999999999999E-2</v>
@@ -7214,8 +7213,8 @@
       <c r="A84">
         <v>7</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>11</v>
+      <c r="B84" t="s">
+        <v>10</v>
       </c>
       <c r="C84">
         <v>9.8300000000000002E-3</v>
@@ -7225,8 +7224,8 @@
       <c r="A85">
         <v>0</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
+      <c r="B85" t="s">
+        <v>9</v>
       </c>
       <c r="C85">
         <v>9.3299999999999998E-3</v>
@@ -7236,8 +7235,8 @@
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>10</v>
+      <c r="B86" t="s">
+        <v>9</v>
       </c>
       <c r="C86">
         <v>9.3299999999999998E-3</v>
@@ -7247,8 +7246,8 @@
       <c r="A87">
         <v>2</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>10</v>
+      <c r="B87" t="s">
+        <v>9</v>
       </c>
       <c r="C87">
         <v>9.3299999999999998E-3</v>
@@ -7258,8 +7257,8 @@
       <c r="A88">
         <v>3</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>10</v>
+      <c r="B88" t="s">
+        <v>9</v>
       </c>
       <c r="C88">
         <v>9.3299999999999998E-3</v>
@@ -7269,8 +7268,8 @@
       <c r="A89">
         <v>4</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>10</v>
+      <c r="B89" t="s">
+        <v>9</v>
       </c>
       <c r="C89">
         <v>9.3299999999999998E-3</v>
@@ -7280,8 +7279,8 @@
       <c r="A90">
         <v>5</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>10</v>
+      <c r="B90" t="s">
+        <v>9</v>
       </c>
       <c r="C90">
         <v>9.3299999999999998E-3</v>
@@ -7291,8 +7290,8 @@
       <c r="A91">
         <v>6</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>10</v>
+      <c r="B91" t="s">
+        <v>9</v>
       </c>
       <c r="C91">
         <v>9.3299999999999998E-3</v>
@@ -7302,8 +7301,8 @@
       <c r="A92">
         <v>7</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>10</v>
+      <c r="B92" t="s">
+        <v>9</v>
       </c>
       <c r="C92">
         <v>8.9200000000000008E-3</v>
@@ -7313,8 +7312,8 @@
       <c r="A93">
         <v>8</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>10</v>
+      <c r="B93" t="s">
+        <v>9</v>
       </c>
       <c r="C93">
         <v>8.9200000000000008E-3</v>
@@ -7324,8 +7323,8 @@
       <c r="A94">
         <v>6</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>11</v>
+      <c r="B94" t="s">
+        <v>10</v>
       </c>
       <c r="C94">
         <v>6.1399999999999996E-3</v>
@@ -7335,8 +7334,8 @@
       <c r="A95">
         <v>0</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>11</v>
+      <c r="B95" t="s">
+        <v>10</v>
       </c>
       <c r="C95">
         <v>5.45E-3</v>
@@ -7346,8 +7345,8 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>11</v>
+      <c r="B96" t="s">
+        <v>10</v>
       </c>
       <c r="C96">
         <v>5.45E-3</v>
@@ -7357,8 +7356,8 @@
       <c r="A97">
         <v>2</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>11</v>
+      <c r="B97" t="s">
+        <v>10</v>
       </c>
       <c r="C97">
         <v>5.45E-3</v>
@@ -7368,8 +7367,8 @@
       <c r="A98">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>11</v>
+      <c r="B98" t="s">
+        <v>10</v>
       </c>
       <c r="C98">
         <v>5.45E-3</v>
@@ -7379,8 +7378,8 @@
       <c r="A99">
         <v>4</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>11</v>
+      <c r="B99" t="s">
+        <v>10</v>
       </c>
       <c r="C99">
         <v>5.45E-3</v>
@@ -7390,8 +7389,8 @@
       <c r="A100">
         <v>5</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>11</v>
+      <c r="B100" t="s">
+        <v>10</v>
       </c>
       <c r="C100">
         <v>4.5900000000000003E-3</v>
@@ -7435,7 +7434,7 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -7446,7 +7445,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -7457,7 +7456,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
@@ -7468,7 +7467,7 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -7479,7 +7478,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
@@ -7490,7 +7489,7 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -7501,8 +7500,8 @@
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8">
         <v>5.3589999999999999E-2</v>
@@ -7512,8 +7511,8 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9">
         <v>5.3589999999999999E-2</v>
@@ -7523,8 +7522,8 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>5.3589999999999999E-2</v>
@@ -7534,8 +7533,8 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
+      <c r="B11" t="s">
+        <v>11</v>
       </c>
       <c r="C11">
         <v>5.3589999999999999E-2</v>
@@ -7545,7 +7544,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
@@ -7556,8 +7555,8 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
       <c r="C13">
         <v>5.3379999999999997E-2</v>
@@ -7567,7 +7566,7 @@
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
@@ -7578,7 +7577,7 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
@@ -7589,7 +7588,7 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
@@ -7600,7 +7599,7 @@
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
@@ -7611,8 +7610,8 @@
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
+      <c r="B18" t="s">
+        <v>5</v>
       </c>
       <c r="C18">
         <v>5.2330000000000002E-2</v>
@@ -7622,8 +7621,8 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
+      <c r="B19" t="s">
+        <v>5</v>
       </c>
       <c r="C19">
         <v>5.2330000000000002E-2</v>
@@ -7633,8 +7632,8 @@
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
+      <c r="B20" t="s">
+        <v>5</v>
       </c>
       <c r="C20">
         <v>5.2330000000000002E-2</v>
@@ -7644,8 +7643,8 @@
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
+      <c r="B21" t="s">
+        <v>5</v>
       </c>
       <c r="C21">
         <v>5.2330000000000002E-2</v>
@@ -7655,7 +7654,7 @@
       <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
@@ -7666,7 +7665,7 @@
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
       <c r="C23">
@@ -7677,7 +7676,7 @@
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
@@ -7688,8 +7687,8 @@
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
+      <c r="B25" t="s">
+        <v>5</v>
       </c>
       <c r="C25">
         <v>5.0599999999999999E-2</v>
@@ -7699,7 +7698,7 @@
       <c r="A26">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
@@ -7710,8 +7709,8 @@
       <c r="A27">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
+      <c r="B27" t="s">
+        <v>11</v>
       </c>
       <c r="C27">
         <v>4.8579999999999998E-2</v>
@@ -7721,7 +7720,7 @@
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>4</v>
       </c>
       <c r="C28">
@@ -7732,8 +7731,8 @@
       <c r="A29">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
+      <c r="B29" t="s">
+        <v>11</v>
       </c>
       <c r="C29">
         <v>4.5339999999999998E-2</v>
@@ -7743,8 +7742,8 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>6</v>
+      <c r="B30" t="s">
+        <v>5</v>
       </c>
       <c r="C30">
         <v>4.4040000000000003E-2</v>
@@ -7754,7 +7753,7 @@
       <c r="A31">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
@@ -7765,8 +7764,8 @@
       <c r="A32">
         <v>9</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
+      <c r="B32" t="s">
+        <v>11</v>
       </c>
       <c r="C32">
         <v>4.3779999999999999E-2</v>
@@ -7776,8 +7775,8 @@
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
+      <c r="B33" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
         <v>4.3409999999999997E-2</v>
@@ -7787,8 +7786,8 @@
       <c r="A34">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>5</v>
+      <c r="B34" t="s">
+        <v>11</v>
       </c>
       <c r="C34">
         <v>4.2630000000000001E-2</v>
@@ -7798,8 +7797,8 @@
       <c r="A35">
         <v>6</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
+      <c r="B35" t="s">
+        <v>11</v>
       </c>
       <c r="C35">
         <v>4.0910000000000002E-2</v>
@@ -7809,7 +7808,7 @@
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
@@ -7820,7 +7819,7 @@
       <c r="A37">
         <v>7</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37">
@@ -7831,8 +7830,8 @@
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
+      <c r="B38" t="s">
+        <v>5</v>
       </c>
       <c r="C38">
         <v>3.7039999999999997E-2</v>
@@ -7842,8 +7841,8 @@
       <c r="A39">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>6</v>
+      <c r="B39" t="s">
+        <v>5</v>
       </c>
       <c r="C39">
         <v>3.6080000000000001E-2</v>
@@ -7853,8 +7852,8 @@
       <c r="A40">
         <v>10</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
+      <c r="B40" t="s">
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3.5580000000000001E-2</v>
@@ -7864,7 +7863,7 @@
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41">
@@ -7875,7 +7874,7 @@
       <c r="A42">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>4</v>
       </c>
       <c r="C42">
@@ -7886,8 +7885,8 @@
       <c r="A43">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>6</v>
+      <c r="B43" t="s">
+        <v>5</v>
       </c>
       <c r="C43">
         <v>3.4090000000000002E-2</v>
@@ -7897,8 +7896,8 @@
       <c r="A44">
         <v>9</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>6</v>
+      <c r="B44" t="s">
+        <v>5</v>
       </c>
       <c r="C44">
         <v>3.4009999999999999E-2</v>
@@ -7908,8 +7907,8 @@
       <c r="A45">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45">
         <v>3.3329999999999999E-2</v>
@@ -7919,8 +7918,8 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
+      <c r="B46" t="s">
+        <v>6</v>
       </c>
       <c r="C46">
         <v>3.3329999999999999E-2</v>
@@ -7930,8 +7929,8 @@
       <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
       <c r="C47">
         <v>3.3329999999999999E-2</v>
@@ -7941,8 +7940,8 @@
       <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
+      <c r="B48" t="s">
+        <v>6</v>
       </c>
       <c r="C48">
         <v>3.3329999999999999E-2</v>
@@ -7952,8 +7951,8 @@
       <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
+      <c r="B49" t="s">
+        <v>6</v>
       </c>
       <c r="C49">
         <v>3.3329999999999999E-2</v>
@@ -7963,8 +7962,8 @@
       <c r="A50">
         <v>5</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>7</v>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
       <c r="C50">
         <v>3.3270000000000001E-2</v>
@@ -7974,7 +7973,7 @@
       <c r="A51">
         <v>10</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51">
@@ -7985,8 +7984,8 @@
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>7</v>
+      <c r="B52" t="s">
+        <v>6</v>
       </c>
       <c r="C52">
         <v>2.92E-2</v>
@@ -7996,8 +7995,8 @@
       <c r="A53">
         <v>7</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>7</v>
+      <c r="B53" t="s">
+        <v>6</v>
       </c>
       <c r="C53">
         <v>2.7269999999999999E-2</v>
@@ -8007,8 +8006,8 @@
       <c r="A54">
         <v>4</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54">
         <v>2.4309999999999998E-2</v>
@@ -8018,8 +8017,8 @@
       <c r="A55">
         <v>0</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55">
         <v>2.4289999999999999E-2</v>
@@ -8029,8 +8028,8 @@
       <c r="A56">
         <v>1</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56">
         <v>2.4289999999999999E-2</v>
@@ -8040,8 +8039,8 @@
       <c r="A57">
         <v>2</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>8</v>
+      <c r="B57" t="s">
+        <v>7</v>
       </c>
       <c r="C57">
         <v>2.4289999999999999E-2</v>
@@ -8051,8 +8050,8 @@
       <c r="A58">
         <v>9</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>7</v>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
         <v>2.3980000000000001E-2</v>
@@ -8062,8 +8061,8 @@
       <c r="A59">
         <v>8</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>7</v>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59">
         <v>2.393E-2</v>
@@ -8073,8 +8072,8 @@
       <c r="A60">
         <v>10</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
         <v>2.392E-2</v>
@@ -8084,8 +8083,8 @@
       <c r="A61">
         <v>3</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>8</v>
+      <c r="B61" t="s">
+        <v>7</v>
       </c>
       <c r="C61">
         <v>2.3869999999999999E-2</v>
@@ -8095,8 +8094,8 @@
       <c r="A62">
         <v>5</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62">
         <v>2.281E-2</v>
@@ -8106,8 +8105,8 @@
       <c r="A63">
         <v>6</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>8</v>
+      <c r="B63" t="s">
+        <v>7</v>
       </c>
       <c r="C63">
         <v>2.2579999999999999E-2</v>
@@ -8117,8 +8116,8 @@
       <c r="A64">
         <v>10</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>10</v>
+      <c r="B64" t="s">
+        <v>9</v>
       </c>
       <c r="C64">
         <v>2.154E-2</v>
@@ -8128,8 +8127,8 @@
       <c r="A65">
         <v>9</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
+      <c r="B65" t="s">
+        <v>9</v>
       </c>
       <c r="C65">
         <v>2.0969999999999999E-2</v>
@@ -8139,8 +8138,8 @@
       <c r="A66">
         <v>6</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>10</v>
+      <c r="B66" t="s">
+        <v>9</v>
       </c>
       <c r="C66">
         <v>2.0809999999999999E-2</v>
@@ -8150,8 +8149,8 @@
       <c r="A67">
         <v>7</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>10</v>
+      <c r="B67" t="s">
+        <v>9</v>
       </c>
       <c r="C67">
         <v>2.0809999999999999E-2</v>
@@ -8161,8 +8160,8 @@
       <c r="A68">
         <v>0</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>10</v>
+      <c r="B68" t="s">
+        <v>9</v>
       </c>
       <c r="C68">
         <v>2.043E-2</v>
@@ -8172,8 +8171,8 @@
       <c r="A69">
         <v>1</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>10</v>
+      <c r="B69" t="s">
+        <v>9</v>
       </c>
       <c r="C69">
         <v>2.043E-2</v>
@@ -8183,8 +8182,8 @@
       <c r="A70">
         <v>2</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>10</v>
+      <c r="B70" t="s">
+        <v>9</v>
       </c>
       <c r="C70">
         <v>2.043E-2</v>
@@ -8194,8 +8193,8 @@
       <c r="A71">
         <v>3</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>10</v>
+      <c r="B71" t="s">
+        <v>9</v>
       </c>
       <c r="C71">
         <v>2.043E-2</v>
@@ -8205,8 +8204,8 @@
       <c r="A72">
         <v>4</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>10</v>
+      <c r="B72" t="s">
+        <v>9</v>
       </c>
       <c r="C72">
         <v>2.043E-2</v>
@@ -8216,8 +8215,8 @@
       <c r="A73">
         <v>5</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>10</v>
+      <c r="B73" t="s">
+        <v>9</v>
       </c>
       <c r="C73">
         <v>2.043E-2</v>
@@ -8227,8 +8226,8 @@
       <c r="A74">
         <v>7</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>8</v>
+      <c r="B74" t="s">
+        <v>7</v>
       </c>
       <c r="C74">
         <v>2.0219999999999998E-2</v>
@@ -8238,8 +8237,8 @@
       <c r="A75">
         <v>9</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75">
         <v>2.0070000000000001E-2</v>
@@ -8249,8 +8248,8 @@
       <c r="A76">
         <v>8</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>10</v>
+      <c r="B76" t="s">
+        <v>9</v>
       </c>
       <c r="C76">
         <v>2.002E-2</v>
@@ -8260,8 +8259,8 @@
       <c r="A77">
         <v>10</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>8</v>
+      <c r="B77" t="s">
+        <v>7</v>
       </c>
       <c r="C77">
         <v>1.9869999999999999E-2</v>
@@ -8271,8 +8270,8 @@
       <c r="A78">
         <v>9</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>8</v>
+      <c r="B78" t="s">
+        <v>7</v>
       </c>
       <c r="C78">
         <v>1.976E-2</v>
@@ -8282,8 +8281,8 @@
       <c r="A79">
         <v>8</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>8</v>
+      <c r="B79" t="s">
+        <v>7</v>
       </c>
       <c r="C79">
         <v>1.941E-2</v>
@@ -8293,8 +8292,8 @@
       <c r="A80">
         <v>8</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>9</v>
+      <c r="B80" t="s">
+        <v>8</v>
       </c>
       <c r="C80">
         <v>1.9349999999999999E-2</v>
@@ -8304,8 +8303,8 @@
       <c r="A81">
         <v>2</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>9</v>
+      <c r="B81" t="s">
+        <v>8</v>
       </c>
       <c r="C81">
         <v>1.9310000000000001E-2</v>
@@ -8315,8 +8314,8 @@
       <c r="A82">
         <v>10</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>9</v>
+      <c r="B82" t="s">
+        <v>8</v>
       </c>
       <c r="C82">
         <v>1.925E-2</v>
@@ -8326,8 +8325,8 @@
       <c r="A83">
         <v>0</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>9</v>
+      <c r="B83" t="s">
+        <v>8</v>
       </c>
       <c r="C83">
         <v>1.917E-2</v>
@@ -8337,8 +8336,8 @@
       <c r="A84">
         <v>5</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>9</v>
+      <c r="B84" t="s">
+        <v>8</v>
       </c>
       <c r="C84">
         <v>1.8630000000000001E-2</v>
@@ -8348,8 +8347,8 @@
       <c r="A85">
         <v>7</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>9</v>
+      <c r="B85" t="s">
+        <v>8</v>
       </c>
       <c r="C85">
         <v>1.8630000000000001E-2</v>
@@ -8359,8 +8358,8 @@
       <c r="A86">
         <v>1</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>9</v>
+      <c r="B86" t="s">
+        <v>8</v>
       </c>
       <c r="C86">
         <v>1.8460000000000001E-2</v>
@@ -8370,8 +8369,8 @@
       <c r="A87">
         <v>6</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>9</v>
+      <c r="B87" t="s">
+        <v>8</v>
       </c>
       <c r="C87">
         <v>1.8190000000000001E-2</v>
@@ -8381,8 +8380,8 @@
       <c r="A88">
         <v>3</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>9</v>
+      <c r="B88" t="s">
+        <v>8</v>
       </c>
       <c r="C88">
         <v>1.7760000000000001E-2</v>
@@ -8392,8 +8391,8 @@
       <c r="A89">
         <v>4</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>9</v>
+      <c r="B89" t="s">
+        <v>8</v>
       </c>
       <c r="C89">
         <v>1.736E-2</v>
@@ -8403,8 +8402,8 @@
       <c r="A90">
         <v>10</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>11</v>
+      <c r="B90" t="s">
+        <v>10</v>
       </c>
       <c r="C90">
         <v>1.5049999999999999E-2</v>
@@ -8414,8 +8413,8 @@
       <c r="A91">
         <v>8</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>11</v>
+      <c r="B91" t="s">
+        <v>10</v>
       </c>
       <c r="C91">
         <v>1.332E-2</v>
@@ -8425,8 +8424,8 @@
       <c r="A92">
         <v>9</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>11</v>
+      <c r="B92" t="s">
+        <v>10</v>
       </c>
       <c r="C92">
         <v>1.2019999999999999E-2</v>
@@ -8436,8 +8435,8 @@
       <c r="A93">
         <v>7</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>11</v>
+      <c r="B93" t="s">
+        <v>10</v>
       </c>
       <c r="C93">
         <v>9.2999999999999992E-3</v>
@@ -8447,8 +8446,8 @@
       <c r="A94">
         <v>6</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>11</v>
+      <c r="B94" t="s">
+        <v>10</v>
       </c>
       <c r="C94">
         <v>7.1500000000000001E-3</v>
@@ -8458,8 +8457,8 @@
       <c r="A95">
         <v>0</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>11</v>
+      <c r="B95" t="s">
+        <v>10</v>
       </c>
       <c r="C95">
         <v>6.7600000000000004E-3</v>
@@ -8469,8 +8468,8 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>11</v>
+      <c r="B96" t="s">
+        <v>10</v>
       </c>
       <c r="C96">
         <v>6.7600000000000004E-3</v>
@@ -8480,8 +8479,8 @@
       <c r="A97">
         <v>2</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>11</v>
+      <c r="B97" t="s">
+        <v>10</v>
       </c>
       <c r="C97">
         <v>6.7600000000000004E-3</v>
@@ -8491,8 +8490,8 @@
       <c r="A98">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>11</v>
+      <c r="B98" t="s">
+        <v>10</v>
       </c>
       <c r="C98">
         <v>6.7600000000000004E-3</v>
@@ -8502,8 +8501,8 @@
       <c r="A99">
         <v>4</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>11</v>
+      <c r="B99" t="s">
+        <v>10</v>
       </c>
       <c r="C99">
         <v>6.7600000000000004E-3</v>
@@ -8513,8 +8512,8 @@
       <c r="A100">
         <v>5</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>11</v>
+      <c r="B100" t="s">
+        <v>10</v>
       </c>
       <c r="C100">
         <v>5.4999999999999997E-3</v>
@@ -8532,8 +8531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DB3B08-D740-488D-B4EC-4B88548772D6}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8558,7 +8557,7 @@
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
@@ -8569,7 +8568,7 @@
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
@@ -8580,7 +8579,7 @@
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
@@ -8591,7 +8590,7 @@
       <c r="A5">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
@@ -8602,7 +8601,7 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
@@ -8613,7 +8612,7 @@
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
@@ -8624,7 +8623,7 @@
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
@@ -8635,7 +8634,7 @@
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
@@ -8646,7 +8645,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
@@ -8657,7 +8656,7 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
@@ -8668,7 +8667,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
@@ -8679,7 +8678,7 @@
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
@@ -8690,7 +8689,7 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>4</v>
       </c>
       <c r="C14">
@@ -8701,7 +8700,7 @@
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
@@ -8712,7 +8711,7 @@
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
@@ -8723,7 +8722,7 @@
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
@@ -8734,8 +8733,8 @@
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>5</v>
+      <c r="B18" t="s">
+        <v>11</v>
       </c>
       <c r="C18">
         <v>4.5319999999999999E-2</v>
@@ -8745,8 +8744,8 @@
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>5</v>
+      <c r="B19" t="s">
+        <v>11</v>
       </c>
       <c r="C19">
         <v>4.4830000000000002E-2</v>
@@ -8756,8 +8755,8 @@
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
+      <c r="B20" t="s">
+        <v>11</v>
       </c>
       <c r="C20">
         <v>4.4830000000000002E-2</v>
@@ -8767,8 +8766,8 @@
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
+      <c r="B21" t="s">
+        <v>11</v>
       </c>
       <c r="C21">
         <v>4.4830000000000002E-2</v>
@@ -8778,8 +8777,8 @@
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>5</v>
+      <c r="B22" t="s">
+        <v>11</v>
       </c>
       <c r="C22">
         <v>4.4830000000000002E-2</v>
@@ -8789,8 +8788,8 @@
       <c r="A23">
         <v>0</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>6</v>
+      <c r="B23" t="s">
+        <v>5</v>
       </c>
       <c r="C23">
         <v>4.4269999999999997E-2</v>
@@ -8800,8 +8799,8 @@
       <c r="A24">
         <v>1</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>6</v>
+      <c r="B24" t="s">
+        <v>5</v>
       </c>
       <c r="C24">
         <v>4.4269999999999997E-2</v>
@@ -8811,8 +8810,8 @@
       <c r="A25">
         <v>2</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>6</v>
+      <c r="B25" t="s">
+        <v>5</v>
       </c>
       <c r="C25">
         <v>4.4269999999999997E-2</v>
@@ -8822,8 +8821,8 @@
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>6</v>
+      <c r="B26" t="s">
+        <v>5</v>
       </c>
       <c r="C26">
         <v>4.4269999999999997E-2</v>
@@ -8833,8 +8832,8 @@
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>6</v>
+      <c r="B27" t="s">
+        <v>5</v>
       </c>
       <c r="C27">
         <v>4.342E-2</v>
@@ -8844,8 +8843,8 @@
       <c r="A28">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
+      <c r="B28" t="s">
+        <v>11</v>
       </c>
       <c r="C28">
         <v>4.138E-2</v>
@@ -8855,8 +8854,8 @@
       <c r="A29">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>5</v>
+      <c r="B29" t="s">
+        <v>11</v>
       </c>
       <c r="C29">
         <v>4.1340000000000002E-2</v>
@@ -8866,7 +8865,7 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>4</v>
       </c>
       <c r="C30">
@@ -8877,8 +8876,8 @@
       <c r="A31">
         <v>8</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
+      <c r="B31" t="s">
+        <v>11</v>
       </c>
       <c r="C31">
         <v>3.984E-2</v>
@@ -8888,8 +8887,8 @@
       <c r="A32">
         <v>10</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>5</v>
+      <c r="B32" t="s">
+        <v>11</v>
       </c>
       <c r="C32">
         <v>3.9309999999999998E-2</v>
@@ -8899,8 +8898,8 @@
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
+      <c r="B33" t="s">
+        <v>11</v>
       </c>
       <c r="C33">
         <v>3.9269999999999999E-2</v>
@@ -8910,8 +8909,8 @@
       <c r="A34">
         <v>5</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>6</v>
+      <c r="B34" t="s">
+        <v>5</v>
       </c>
       <c r="C34">
         <v>3.8920000000000003E-2</v>
@@ -8921,8 +8920,8 @@
       <c r="A35">
         <v>7</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>5</v>
+      <c r="B35" t="s">
+        <v>11</v>
       </c>
       <c r="C35">
         <v>3.8719999999999997E-2</v>
@@ -8932,7 +8931,7 @@
       <c r="A36">
         <v>6</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36">
@@ -8943,8 +8942,8 @@
       <c r="A37">
         <v>7</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>6</v>
+      <c r="B37" t="s">
+        <v>5</v>
       </c>
       <c r="C37">
         <v>3.5729999999999998E-2</v>
@@ -8954,8 +8953,8 @@
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>6</v>
+      <c r="B38" t="s">
+        <v>5</v>
       </c>
       <c r="C38">
         <v>3.5380000000000002E-2</v>
@@ -8965,7 +8964,7 @@
       <c r="A39">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39">
@@ -8976,8 +8975,8 @@
       <c r="A40">
         <v>10</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>6</v>
+      <c r="B40" t="s">
+        <v>5</v>
       </c>
       <c r="C40">
         <v>3.3349999999999998E-2</v>
@@ -8987,8 +8986,8 @@
       <c r="A41">
         <v>9</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>6</v>
+      <c r="B41" t="s">
+        <v>5</v>
       </c>
       <c r="C41">
         <v>3.3050000000000003E-2</v>
@@ -8998,8 +8997,8 @@
       <c r="A42">
         <v>6</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>6</v>
+      <c r="B42" t="s">
+        <v>5</v>
       </c>
       <c r="C42">
         <v>3.2719999999999999E-2</v>
@@ -9009,7 +9008,7 @@
       <c r="A43">
         <v>8</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43">
@@ -9020,8 +9019,8 @@
       <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>7</v>
+      <c r="B44" t="s">
+        <v>6</v>
       </c>
       <c r="C44">
         <v>2.9700000000000001E-2</v>
@@ -9031,8 +9030,8 @@
       <c r="A45">
         <v>0</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45">
         <v>2.9340000000000001E-2</v>
@@ -9042,8 +9041,8 @@
       <c r="A46">
         <v>1</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>7</v>
+      <c r="B46" t="s">
+        <v>6</v>
       </c>
       <c r="C46">
         <v>2.9340000000000001E-2</v>
@@ -9053,8 +9052,8 @@
       <c r="A47">
         <v>2</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>7</v>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
       <c r="C47">
         <v>2.9340000000000001E-2</v>
@@ -9064,8 +9063,8 @@
       <c r="A48">
         <v>3</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
+      <c r="B48" t="s">
+        <v>6</v>
       </c>
       <c r="C48">
         <v>2.9340000000000001E-2</v>
@@ -9075,8 +9074,8 @@
       <c r="A49">
         <v>4</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
+      <c r="B49" t="s">
+        <v>6</v>
       </c>
       <c r="C49">
         <v>2.9340000000000001E-2</v>
@@ -9086,7 +9085,7 @@
       <c r="A50">
         <v>9</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" t="s">
         <v>4</v>
       </c>
       <c r="C50">
@@ -9097,8 +9096,8 @@
       <c r="A51">
         <v>4</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>8</v>
+      <c r="B51" t="s">
+        <v>7</v>
       </c>
       <c r="C51">
         <v>2.7810000000000001E-2</v>
@@ -9108,8 +9107,8 @@
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>8</v>
+      <c r="B52" t="s">
+        <v>7</v>
       </c>
       <c r="C52">
         <v>2.776E-2</v>
@@ -9119,7 +9118,7 @@
       <c r="A53">
         <v>10</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" t="s">
         <v>4</v>
       </c>
       <c r="C53">
@@ -9130,8 +9129,8 @@
       <c r="A54">
         <v>0</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>8</v>
+      <c r="B54" t="s">
+        <v>7</v>
       </c>
       <c r="C54">
         <v>2.7439999999999999E-2</v>
@@ -9141,8 +9140,8 @@
       <c r="A55">
         <v>1</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
+      <c r="B55" t="s">
+        <v>7</v>
       </c>
       <c r="C55">
         <v>2.7439999999999999E-2</v>
@@ -9152,8 +9151,8 @@
       <c r="A56">
         <v>2</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>8</v>
+      <c r="B56" t="s">
+        <v>7</v>
       </c>
       <c r="C56">
         <v>2.7439999999999999E-2</v>
@@ -9163,8 +9162,8 @@
       <c r="A57">
         <v>6</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>7</v>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
         <v>2.7300000000000001E-2</v>
@@ -9174,8 +9173,8 @@
       <c r="A58">
         <v>3</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>8</v>
+      <c r="B58" t="s">
+        <v>7</v>
       </c>
       <c r="C58">
         <v>2.7040000000000002E-2</v>
@@ -9185,8 +9184,8 @@
       <c r="A59">
         <v>5</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>8</v>
+      <c r="B59" t="s">
+        <v>7</v>
       </c>
       <c r="C59">
         <v>2.6919999999999999E-2</v>
@@ -9196,8 +9195,8 @@
       <c r="A60">
         <v>7</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>7</v>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
         <v>2.4150000000000001E-2</v>
@@ -9207,8 +9206,8 @@
       <c r="A61">
         <v>2</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>9</v>
+      <c r="B61" t="s">
+        <v>8</v>
       </c>
       <c r="C61">
         <v>2.375E-2</v>
@@ -9218,8 +9217,8 @@
       <c r="A62">
         <v>7</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
+      <c r="B62" t="s">
+        <v>7</v>
       </c>
       <c r="C62">
         <v>2.3640000000000001E-2</v>
@@ -9229,8 +9228,8 @@
       <c r="A63">
         <v>1</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>9</v>
+      <c r="B63" t="s">
+        <v>8</v>
       </c>
       <c r="C63">
         <v>2.3560000000000001E-2</v>
@@ -9240,8 +9239,8 @@
       <c r="A64">
         <v>0</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>9</v>
+      <c r="B64" t="s">
+        <v>8</v>
       </c>
       <c r="C64">
         <v>2.3269999999999999E-2</v>
@@ -9251,8 +9250,8 @@
       <c r="A65">
         <v>9</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>8</v>
+      <c r="B65" t="s">
+        <v>7</v>
       </c>
       <c r="C65">
         <v>2.3230000000000001E-2</v>
@@ -9262,8 +9261,8 @@
       <c r="A66">
         <v>9</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>9</v>
+      <c r="B66" t="s">
+        <v>8</v>
       </c>
       <c r="C66">
         <v>2.3120000000000002E-2</v>
@@ -9273,8 +9272,8 @@
       <c r="A67">
         <v>8</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>8</v>
+      <c r="B67" t="s">
+        <v>7</v>
       </c>
       <c r="C67">
         <v>2.2679999999999999E-2</v>
@@ -9284,8 +9283,8 @@
       <c r="A68">
         <v>10</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>9</v>
+      <c r="B68" t="s">
+        <v>8</v>
       </c>
       <c r="C68">
         <v>2.2579999999999999E-2</v>
@@ -9295,8 +9294,8 @@
       <c r="A69">
         <v>3</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>9</v>
+      <c r="B69" t="s">
+        <v>8</v>
       </c>
       <c r="C69">
         <v>2.2100000000000002E-2</v>
@@ -9306,8 +9305,8 @@
       <c r="A70">
         <v>5</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>9</v>
+      <c r="B70" t="s">
+        <v>8</v>
       </c>
       <c r="C70">
         <v>2.2100000000000002E-2</v>
@@ -9317,8 +9316,8 @@
       <c r="A71">
         <v>6</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>9</v>
+      <c r="B71" t="s">
+        <v>8</v>
       </c>
       <c r="C71">
         <v>2.2100000000000002E-2</v>
@@ -9328,8 +9327,8 @@
       <c r="A72">
         <v>8</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>9</v>
+      <c r="B72" t="s">
+        <v>8</v>
       </c>
       <c r="C72">
         <v>2.198E-2</v>
@@ -9339,8 +9338,8 @@
       <c r="A73">
         <v>4</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>9</v>
+      <c r="B73" t="s">
+        <v>8</v>
       </c>
       <c r="C73">
         <v>2.1749999999999999E-2</v>
@@ -9350,8 +9349,8 @@
       <c r="A74">
         <v>9</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>7</v>
+      <c r="B74" t="s">
+        <v>6</v>
       </c>
       <c r="C74">
         <v>2.1749999999999999E-2</v>
@@ -9361,8 +9360,8 @@
       <c r="A75">
         <v>7</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>9</v>
+      <c r="B75" t="s">
+        <v>8</v>
       </c>
       <c r="C75">
         <v>2.1520000000000001E-2</v>
@@ -9372,8 +9371,8 @@
       <c r="A76">
         <v>8</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>7</v>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
       <c r="C76">
         <v>2.104E-2</v>
@@ -9383,8 +9382,8 @@
       <c r="A77">
         <v>10</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>8</v>
+      <c r="B77" t="s">
+        <v>7</v>
       </c>
       <c r="C77">
         <v>2.0930000000000001E-2</v>
@@ -9394,8 +9393,8 @@
       <c r="A78">
         <v>10</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>7</v>
+      <c r="B78" t="s">
+        <v>6</v>
       </c>
       <c r="C78">
         <v>2.0119999999999999E-2</v>
@@ -9405,8 +9404,8 @@
       <c r="A79">
         <v>10</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>10</v>
+      <c r="B79" t="s">
+        <v>9</v>
       </c>
       <c r="C79">
         <v>1.8409999999999999E-2</v>
@@ -9416,8 +9415,8 @@
       <c r="A80">
         <v>9</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>10</v>
+      <c r="B80" t="s">
+        <v>9</v>
       </c>
       <c r="C80">
         <v>1.8339999999999999E-2</v>
@@ -9427,8 +9426,8 @@
       <c r="A81">
         <v>6</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>10</v>
+      <c r="B81" t="s">
+        <v>9</v>
       </c>
       <c r="C81">
         <v>1.703E-2</v>
@@ -9438,8 +9437,8 @@
       <c r="A82">
         <v>7</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>10</v>
+      <c r="B82" t="s">
+        <v>9</v>
       </c>
       <c r="C82">
         <v>1.703E-2</v>
@@ -9449,8 +9448,8 @@
       <c r="A83">
         <v>8</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>10</v>
+      <c r="B83" t="s">
+        <v>9</v>
       </c>
       <c r="C83">
         <v>1.703E-2</v>
@@ -9460,8 +9459,8 @@
       <c r="A84">
         <v>0</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>10</v>
+      <c r="B84" t="s">
+        <v>9</v>
       </c>
       <c r="C84">
         <v>1.67E-2</v>
@@ -9471,8 +9470,8 @@
       <c r="A85">
         <v>1</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
+      <c r="B85" t="s">
+        <v>9</v>
       </c>
       <c r="C85">
         <v>1.67E-2</v>
@@ -9482,8 +9481,8 @@
       <c r="A86">
         <v>2</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>10</v>
+      <c r="B86" t="s">
+        <v>9</v>
       </c>
       <c r="C86">
         <v>1.67E-2</v>
@@ -9493,8 +9492,8 @@
       <c r="A87">
         <v>3</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>10</v>
+      <c r="B87" t="s">
+        <v>9</v>
       </c>
       <c r="C87">
         <v>1.67E-2</v>
@@ -9504,8 +9503,8 @@
       <c r="A88">
         <v>4</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>10</v>
+      <c r="B88" t="s">
+        <v>9</v>
       </c>
       <c r="C88">
         <v>1.67E-2</v>
@@ -9515,8 +9514,8 @@
       <c r="A89">
         <v>5</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>10</v>
+      <c r="B89" t="s">
+        <v>9</v>
       </c>
       <c r="C89">
         <v>1.67E-2</v>
@@ -9526,8 +9525,8 @@
       <c r="A90">
         <v>10</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>11</v>
+      <c r="B90" t="s">
+        <v>10</v>
       </c>
       <c r="C90">
         <v>1.3990000000000001E-2</v>
@@ -9537,8 +9536,8 @@
       <c r="A91">
         <v>9</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>11</v>
+      <c r="B91" t="s">
+        <v>10</v>
       </c>
       <c r="C91">
         <v>1.3610000000000001E-2</v>
@@ -9548,8 +9547,8 @@
       <c r="A92">
         <v>8</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>11</v>
+      <c r="B92" t="s">
+        <v>10</v>
       </c>
       <c r="C92">
         <v>1.1639999999999999E-2</v>
@@ -9559,8 +9558,8 @@
       <c r="A93">
         <v>7</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>11</v>
+      <c r="B93" t="s">
+        <v>10</v>
       </c>
       <c r="C93">
         <v>8.3499999999999998E-3</v>
@@ -9570,8 +9569,8 @@
       <c r="A94">
         <v>6</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>11</v>
+      <c r="B94" t="s">
+        <v>10</v>
       </c>
       <c r="C94">
         <v>4.5300000000000002E-3</v>
@@ -9581,8 +9580,8 @@
       <c r="A95">
         <v>0</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>11</v>
+      <c r="B95" t="s">
+        <v>10</v>
       </c>
       <c r="C95">
         <v>4.3E-3</v>
@@ -9592,8 +9591,8 @@
       <c r="A96">
         <v>1</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>11</v>
+      <c r="B96" t="s">
+        <v>10</v>
       </c>
       <c r="C96">
         <v>4.3E-3</v>
@@ -9603,8 +9602,8 @@
       <c r="A97">
         <v>2</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>11</v>
+      <c r="B97" t="s">
+        <v>10</v>
       </c>
       <c r="C97">
         <v>4.3E-3</v>
@@ -9614,8 +9613,8 @@
       <c r="A98">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>11</v>
+      <c r="B98" t="s">
+        <v>10</v>
       </c>
       <c r="C98">
         <v>4.3E-3</v>
@@ -9625,8 +9624,8 @@
       <c r="A99">
         <v>4</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>11</v>
+      <c r="B99" t="s">
+        <v>10</v>
       </c>
       <c r="C99">
         <v>4.3E-3</v>
@@ -9636,8 +9635,8 @@
       <c r="A100">
         <v>5</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>11</v>
+      <c r="B100" t="s">
+        <v>10</v>
       </c>
       <c r="C100">
         <v>3.4399999999999999E-3</v>
